--- a/Assets/StreamingAssets/StoryScript5.xlsx
+++ b/Assets/StreamingAssets/StoryScript5.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/renqi/TextAdvancedGame/Assets/StreamingAssets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CA29E36-4CA3-2440-B6D5-4B99D6A1D0F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC679904-81A0-7847-8F6F-0B4ACC916911}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28100" windowHeight="15820" xr2:uid="{68C9ECD6-F2C7-A34A-8665-FFA8663C762C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1039" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1052" uniqueCount="330">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -334,10 +334,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Master Di has a point.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> &lt;color=#00CC00&gt;(So each of us took an umbrella in one hand and a lantern in the other, and we set off from the banquet hall in different directions.)&lt;/color&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -378,10 +374,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>The lord’s disappearance is indeed strange. I’ll help you search.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Quan-Sad</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -414,42 +406,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> &lt;color=#00CC00&gt;(Hai hour—9:00 PM.)&lt;/color&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> &lt;color=#00CC00&gt;(At the appointed time, everyone who had been searching returned to the corridor.)&lt;/color&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>We searched the training grounds and the guest rooms. Aside from Quan, we didn’t see anyone. What about you?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>I checked the back courtyard, the study, the sleeping chambers—even the garden pavilion. No sign of Father.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Ming-Thinking3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>I searched the kitchen and the storerooms as well—no trace of the lord.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>I walked along the corridor and checked all the passageways and the guards’ quarters—nothing there either.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Quan-Thinking</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>The front courtyard and the reception hall—nothing.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Ran-Pity</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -462,26 +430,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Could he have gone to the Treasure Pavilion?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Then let’s open it and take a look.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Absolutely not! The Treasure Pavilion is strictly forbidden. No one may enter without the lord’s permission!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>He-Shout</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Steward He’s face darkened as he firmly rejected the suggestion.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Everyone, calm down. If we can’t find him inside the manor, then perhaps—</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -490,10 +446,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>If the manor lord went out on urgent business and is now on his way back, opening the pavilion without permission would indeed be inappropriate.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>I... suppose you’re right.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -506,10 +458,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> &lt;color=#00CC00&gt;(We walked through the waterlogged front courtyard, our shoes and socks soaked by the rain.)&lt;/color&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Door-Close-Raining</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -558,14 +506,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Lord Xu!!!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> &lt;color=#00CC00&gt;(Steward He, who was closest to the gate, cried out and rushed forward, reaching out to support the collapsed figure.)&lt;/color&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Don’t touch him yet.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -574,10 +514,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> &lt;color=#00CC00&gt;(Doctor Ran checked the manor lord’s pulse, then slowly shook her head.)&lt;/color&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>He’s gone.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -598,18 +534,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> &lt;color=#00CC00&gt;(When we found the lord of Qingliu Manor, he was already a corpse.)&lt;/color&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> &lt;color=#00CC00&gt;(Everyone fell into a panic like never before.)&lt;/color&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Steward He, is this really the only way in or out of Qingliu Manor?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Door-Open-Raining</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -622,14 +550,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> &lt;color=#00CC00&gt;(The steward, still in shock, responded mechanically.)&lt;/color&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Everyone, stay calm. Steward He, please move the lord’s body back to the reception hall immediately.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Then gather everyone there for a meeting.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -642,18 +562,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> &lt;color=#00CC00&gt;(With that, Sir grabbed a lantern and dashed outside.)&lt;/color&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> &lt;color=#00CC00&gt;(The manor’s entrance sat only a few steps from the edge of a cliff—and just then, a flash of lightning split the sky.)&lt;/color&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> &lt;color=#00CC00&gt;(The suspension bridge—the only route down the mountain that connected the manor to the outside world—)&lt;/color&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> &lt;color=#00CC00&gt;(—was gone.)&lt;/color&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -662,10 +570,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Chong, let’s head back for now. Once the rain stops tomorrow, we need to investigate this area carefully.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Yes, sir. Watch your step.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -674,10 +578,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> &lt;color=#00CC00&gt;(Back in the reception hall, everyone in the manor had gathered. They stood in a line around the body.)&lt;/color&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Suspicious</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -698,18 +598,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Does anyone know who killed the manor lord?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Fu</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>A murderer? Are you saying the manor lord didn’t die by accident?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Fu-Astonished</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -726,10 +618,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> &lt;color=#00CC00&gt;(Steward He spoke with firm certainty, and no one voiced any disagreement.)&lt;/color&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>We’ve all been in the banquet hall tonight. How could any of us possibly know who the killer is?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -742,10 +630,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>The manor lord never showed up—was he killed before the banquet even began?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Chen-Astonished</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -774,30 +658,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> &lt;color=#00CC00&gt;(Blacksmith Lee cautiously joined the conversation, looking visibly uneasy.)&lt;/color&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Now that there’s been a murder, shouldn’t we report it to the authorities right away?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>That may not be possible. Right after we discovered the manor lord’s body, Sir and I checked the path down the mountain.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>The suspension bridge—the only way down—had vanished without us realizing it.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>So......</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> &lt;color=#00CC00&gt;(The reception hall fell into stillness. One by one, expressions of fear surfaced on everyone’s faces.)&lt;/color&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>So at the moment, reporting this to the authorities is impossible.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -838,10 +706,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>If I had to guess—it was the same person who murdered Lord Xu.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Why would they destroy the bridge?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -858,10 +722,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> &lt;color=#00CC00&gt;(All eyes turned anxiously to Steward He, hoping he could offer a reassuring solution.)&lt;/color&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> &lt;color=#00CC00&gt;(But sadly—)&lt;/color&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -870,10 +730,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>There’s no other path except the one connected by the suspension bridge.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Which means—we are clearly trapped in the manor.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -914,18 +770,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> &lt;color=#00CC00&gt;(Steward He wasn’t entirely sure about the kitchen and storage supplies.)&lt;/color&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> &lt;color=#00CC00&gt;(So he turned and looked at Ling, who was standing nearby.)&lt;/color&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>The food in storage... should be just enough to last seven days.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Ling-Sad</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -934,10 +778,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>You all heard it. Let’s stay in the manor and wait patiently for seven days. Then we can report the case.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> &lt;color=#00CC00&gt;(Seven days…)&lt;/color&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -950,58 +790,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> &lt;color=#00CC00&gt;(As I was worrying about the investigation, Sir stepped forward.)&lt;/color&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Steward He, is everyone who was in the manor today present right now?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>If the murderer killed the lord and then destroyed the bridge to escape, that person should no longer be in the manor.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Master Di, are you suggesting...?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Why don’t we introduce ourselves to one another? That way, the steward can verify the headcount.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>That makes sense. Then let’s start with…</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Let’s begin with me and Chong.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>I am Di Renjie, passing through from Luoyang on my travels.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>This is my attendant, Yao Chong.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Greetings, everyone. I’m Yao Chong.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Everyone here should already know Madam Mei and Ming.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Next is…</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>I’m Chen, chief guard of the manor. I swear I’ll catch the killer and avenge the lord.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Chen-Regular</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1010,10 +806,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>I’m He, the steward of the manor.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>This is Ling, in charge of the kitchen and meals.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1038,34 +830,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Amitabha. I am Kongming, a humble monk from Tianzhu.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>If anyone is curious about the Dharma, I’d be happy to offer teachings and explanations.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>I’m Lee the blacksmith. You all probably know me—I run the forge down in the town below.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Many of the weapons used in the manor were made by me.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>My name is Ran. I’m a doctor from the town.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> &lt;color=#00CC00&gt;(Once the introductions were complete, everyone turned toward Steward He.)&lt;/color&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Before tonight’s banquet began, the number of people in the manor was thirteen.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>One, two, four, eight…</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1078,22 +850,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Wha—how is that possible? Didn’t that Di fellow say the killer had already escaped?!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> &lt;color=#00CC00&gt;(The reception hall suddenly fell into a long, heavy silence.)&lt;/color&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> &lt;color=#00CC00&gt;(Until just now, we had all assumed the murderer had killed the lord and fled the manor.)&lt;/color&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> &lt;color=#00CC00&gt;(And yet..</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Perhaps... the murderer never left the manor at all.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1161,10 +917,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>I propose that before the constables from town arrive in seven days, we conduct our own investigation into Lord Xu’s murder.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Examine the scene, gather testimonies, and collect evidence.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1173,38 +925,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>I support that. The manor lord must not die without justice!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Hmph! Easy for you to say. I think someone within the manor is likely involved!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Watch your mouth! Everyone here respects the lord deeply—no one from the manor would ever harm him!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>We guests have no grievance with the lord—there’s no reason any of us would commit the crime!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Amitabha…</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> &lt;color=#00CC00&gt;(Steward He looked helpless as the group descended into argument.)&lt;/color&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> &lt;color=#00CC00&gt;(He turned and looked pleadingly at the one person who had remained silent until now.)&lt;/color&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Young Master, regardless of your thoughts, the lord once told me clearly: Qingquan Manor does not belong to Madam Mei, nor to any of the guards…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>It belongs solely to you—his only son.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1241,10 +973,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Master Di!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Though we’ve only just met, I’ve heard of your skill in solving cases at the Luoyang Court of Justice.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1257,10 +985,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> &lt;color=#00CC00&gt;(Sir bowed with both fists clasped before him. The surge of righteousness in his heart had indeed made it impossible for him to stay on the sidelines.)&lt;/color&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>To uncover the truth, I’ll need to question everyone present.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1297,10 +1021,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> &lt;color=#00CC00&gt;(Let’s begin with those most familiar with the manor—Steward He and Ling.)&lt;/color&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>DialogueVocal</t>
   </si>
   <si>
@@ -1308,10 +1028,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Steward He</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Chef Ling</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1338,6 +1054,325 @@
   </si>
   <si>
     <t>Death</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>You has a point.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I checked the backyard, the study, the bedroom—even the garden. No sign of Father.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Could he have gone to the Treasure Vault?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;color=#00CC00&gt;(We walked through the waterlogged frontyard, our shoes and socks soaked by the rain.)&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;color=#00CC00&gt;(Lee cautiously joined the conversation, looking visibly uneasy.)&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>That may not be possible. Right after we discovered the lord’s body, Sir and I checked the path down the mountain.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;color=#00CC00&gt;(As everyone was worrying about the investigation, I decided to step forward.)&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sir, are you suggesting...?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Let’s begin with me and Yao.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I am Judge Dee, passing through from Luoyang on my travels.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Greetings, everyone. I’m Yao.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Amitabha. I am Kong, a humble monk from Tianzhu.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wha—how is that possible? Didn’t that Dee fellow say the killer had already escaped?!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dee!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;color=#00CC00&gt;(I bowed with both fists clasped. The surge of righteousness in my heart had indeed made it impossible for me to stay on the sidelines.)&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The Lord’s disappearance is indeed strange. I’ll help you search.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> &lt;color=#00CC00&gt;(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Hai hour (9 PM).</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)&lt;/color&gt;</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>We searched the training square and the guest rooms. Aside from Quan, we didn’t see anyone. What about you?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I searched the kitchen and the storage area as well—no trace of the Lord.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I walked along the corridor and checked all the passageways and the guards’ rooms—nothing there either.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The frontyard and the meeting hall—nothing.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Absolutely not! </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The Treasure Vault is strictly forbidden. No one may enter without the lord’s permission!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Butler He’s face darkened as he firmly rejected the suggestion.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>If the Lord went out on urgent business and is now on his way back, opening the Treasure Vault without permission would indeed be inappropriate.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>My Lord!!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;color=#00CC00&gt;(Butler He, who was closest to the gate, cried out and rushed forward, reaching out to support the collapsed figure.)&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;color=#00CC00&gt;(Doctor Ran checked the Lord’s pulse, then slowly shook her head.)&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;color=#00CC00&gt;(When we found the Lord of Qingliu Manor, he was already a corpse.)&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Butler He, is this really the only way in or out of Qingliu Manor?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;color=#00CC00&gt;(The butler, still in shock, responded mechanically.)&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Everyone, stay calm. Please move the Lord’s body back to the meeting hall immediately.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;color=#00CC00&gt;(With that, I and Yao grabbed a lantern and dashed outside.)&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;color=#00CC00&gt;(The manor’s entrance sat has short distance from the edge of a cliff—and just then, a flash of lightning split the sky.)&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;color=#00CC00&gt;(The bridge—the only route down the mountain that connected the manor to the outside world—)&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yao, let’s head back for now. Once the rain stops tomorrow, we need to investigate this area carefully.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;color=#00CC00&gt;(Back in the meeting hall, everyone in the manor had gathered. They stood in a line around the body.)&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Does anyone know who killed the Lord?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A murderer? Are you saying the Lord didn’t die by accident?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;color=#00CC00&gt;(ButlerHe spoke with firm certainty, and no one voiced any disagreement.)&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The Lord never showed up—was he killed before the banquet even began?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The bridge—the only way down—had vanished without us realizing it.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;color=#00CC00&gt;(The meeting hall fell into stillness. One by one, expressions of fear surfaced on everyone’s faces.)&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>If I had to guess—it was the same person who murdered the Lord.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;color=#00CC00&gt;(All eyes turned anxiously to Butler He, hoping he could offer a reassuring solution.)&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>There’s no other path except the one connected by the bridge.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;color=#00CC00&gt;(Butler He wasn’t entirely sure about the kitchen and storage supplies.)&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;color=#00CC00&gt;(So he turned and looked at Chef Ling, who was standing nearby.)&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The food in storage......millet, wheat and rice should be just enough to last seven days.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">You all heard it. Let’s stay in the manor and wait patiently for seven days. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Then we can report the case.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sorry, is everyone who was in the manor today present right now?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>If the murderer killed the Lord and then destroyed the bridge to escape, that person should no longer be in the manor.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Why don’t we introduce ourselves to one another? That way, the butler can verify the headcount.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>This is my student, Yao.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Everyone here should already know Madam Mei and Youny Lord Ming.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I’m Chen, chief guard of the manor. I swear I’ll catch the killer and avenge the Lord.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I’m He, the butler of the manor.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I’m Lee. You all probably know me—I run the forge down in the JiuJiang county.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>My name is Ran. I’m a doctor from the  JiuJiang county.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;color=#00CC00&gt;(Once the introductions were complete, everyone turned toward Butler He.)&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Before tonight’s banquet began, the number of people in the manor was .</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;color=#00CC00&gt;(The meeting hall suddenly fell into a long, heavy silence.)&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;color=#00CC00&gt;(Until just now, we had all assumed the murderer had killed the Lord and fled the manor.)&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;color=#00CC00&gt;(And yet..)&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I propose that before the constables from town arrive in seven days, we conduct our own investigation into the Lord’s murder.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I support that. The Lord must not die without justice!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Watch your mouth! Everyone here respects the Lord deeply—no one from the manor would ever harm him!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>We guests have no grievance with the Lord—there’s no reason any of us would commit the crime!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;color=#00CC00&gt;(Butler He looked helpless as the group descended into argument.)&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Young Lord, regardless of your thoughts, the Lord once told me clearly: Qingliu Manor does not belong to Madam Mei......</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;color=#00CC00&gt;(Let’s begin with those most familiar with the manor—Butler He and Chef Ling.)&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Butler He</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>History10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1345,7 +1380,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1361,8 +1396,15 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1381,6 +1423,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1396,7 +1444,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1407,6 +1455,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1743,10 +1794,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7EEC272-F350-D34D-A243-3179172F76FB}">
-  <dimension ref="A1:P344"/>
+  <dimension ref="A1:P346"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A195" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="E111" workbookViewId="0">
+      <selection activeCell="L124" sqref="L124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1863,7 +1914,7 @@
         <v>24</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>74</v>
+        <v>256</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -1880,7 +1931,7 @@
     </row>
     <row r="5" spans="1:16" ht="51">
       <c r="B5" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D5" t="s">
         <v>15</v>
@@ -1896,7 +1947,7 @@
     </row>
     <row r="6" spans="1:16" ht="51">
       <c r="B6" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D6" t="s">
         <v>15</v>
@@ -1907,13 +1958,13 @@
     </row>
     <row r="7" spans="1:16" ht="51">
       <c r="B7" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" t="s">
         <v>77</v>
-      </c>
-      <c r="D7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="17">
@@ -1921,7 +1972,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C8" t="s">
         <v>14</v>
@@ -1930,7 +1981,7 @@
         <v>15</v>
       </c>
       <c r="E8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>22</v>
@@ -1947,16 +1998,16 @@
         <v>53</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C9" t="s">
         <v>80</v>
       </c>
-      <c r="C9" t="s">
-        <v>81</v>
-      </c>
       <c r="D9" t="s">
         <v>15</v>
       </c>
       <c r="E9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
@@ -1964,13 +2015,13 @@
     </row>
     <row r="10" spans="1:16" ht="34">
       <c r="B10" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D10" t="s">
         <v>15</v>
       </c>
       <c r="E10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
@@ -1981,7 +2032,7 @@
         <v>1</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C11" t="s">
         <v>14</v>
@@ -1990,7 +2041,7 @@
         <v>15</v>
       </c>
       <c r="E11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
@@ -2001,7 +2052,7 @@
         <v>53</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C12" t="s">
         <v>52</v>
@@ -2010,7 +2061,7 @@
         <v>15</v>
       </c>
       <c r="E12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
@@ -2021,16 +2072,16 @@
         <v>53</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>85</v>
+        <v>271</v>
       </c>
       <c r="C13" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D13" t="s">
         <v>15</v>
       </c>
       <c r="E13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
@@ -2041,16 +2092,16 @@
         <v>53</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C14" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D14" t="s">
         <v>15</v>
       </c>
       <c r="E14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
@@ -2058,7 +2109,7 @@
     </row>
     <row r="15" spans="1:16" ht="34">
       <c r="B15" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D15" t="s">
         <v>15</v>
@@ -2074,7 +2125,7 @@
     </row>
     <row r="16" spans="1:16" ht="34">
       <c r="B16" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D16" t="s">
         <v>15</v>
@@ -2085,24 +2136,24 @@
     </row>
     <row r="17" spans="1:12" ht="51">
       <c r="B17" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D17" t="s">
         <v>15</v>
       </c>
       <c r="E17" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="34">
       <c r="B18" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D18" t="s">
         <v>15</v>
       </c>
       <c r="E18" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="17">
@@ -2110,7 +2161,7 @@
         <v>2</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C19" t="s">
         <v>38</v>
@@ -2119,12 +2170,12 @@
         <v>15</v>
       </c>
       <c r="E19" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="17">
       <c r="B20" s="1" t="s">
-        <v>94</v>
+        <v>272</v>
       </c>
       <c r="D20" t="s">
         <v>15</v>
@@ -2135,7 +2186,7 @@
     </row>
     <row r="21" spans="1:12" ht="51">
       <c r="B21" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D21" t="s">
         <v>15</v>
@@ -2149,7 +2200,7 @@
         <v>1</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>96</v>
+        <v>273</v>
       </c>
       <c r="C22" t="s">
         <v>33</v>
@@ -2175,7 +2226,7 @@
         <v>24</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>97</v>
+        <v>257</v>
       </c>
       <c r="C23" t="s">
         <v>25</v>
@@ -2196,7 +2247,7 @@
         <v>0</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="34">
@@ -2204,7 +2255,7 @@
         <v>35</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>99</v>
+        <v>274</v>
       </c>
       <c r="C24" t="s">
         <v>58</v>
@@ -2233,10 +2284,10 @@
         <v>53</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>100</v>
+        <v>275</v>
       </c>
       <c r="C25" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D25" t="s">
         <v>15</v>
@@ -2254,7 +2305,7 @@
         <v>0</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="17">
@@ -2262,10 +2313,10 @@
         <v>64</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>102</v>
+        <v>276</v>
       </c>
       <c r="C26" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="D26" t="s">
         <v>15</v>
@@ -2288,7 +2339,7 @@
     </row>
     <row r="27" spans="1:12" ht="34">
       <c r="B27" s="1" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="D27" t="s">
         <v>15</v>
@@ -2310,7 +2361,7 @@
         <v>1</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="C28" t="s">
         <v>44</v>
@@ -2339,7 +2390,7 @@
         <v>53</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>106</v>
+        <v>258</v>
       </c>
       <c r="C29" t="s">
         <v>52</v>
@@ -2366,7 +2417,7 @@
         <v>24</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="C30" t="s">
         <v>26</v>
@@ -2378,15 +2429,15 @@
         <v>73</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="51">
+    <row r="31" spans="1:12" ht="17">
       <c r="A31" t="s">
         <v>35</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>108</v>
+        <v>277</v>
       </c>
       <c r="C31" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="D31" t="s">
         <v>15</v>
@@ -2401,12 +2452,18 @@
         <v>500</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="34">
+      <c r="A32" t="s">
+        <v>35</v>
+      </c>
       <c r="B32" s="1" t="s">
-        <v>110</v>
+        <v>278</v>
+      </c>
+      <c r="C32" t="s">
+        <v>99</v>
       </c>
       <c r="D32" t="s">
         <v>15</v>
@@ -2419,14 +2476,8 @@
       <c r="L32" s="2"/>
     </row>
     <row r="33" spans="1:16" ht="34">
-      <c r="A33" t="s">
-        <v>53</v>
-      </c>
       <c r="B33" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C33" t="s">
-        <v>52</v>
+        <v>279</v>
       </c>
       <c r="D33" t="s">
         <v>15</v>
@@ -2434,22 +2485,16 @@
       <c r="E33" t="s">
         <v>73</v>
       </c>
-      <c r="J33" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K33" s="2">
-        <v>500</v>
-      </c>
-      <c r="L33" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" ht="17">
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+    </row>
+    <row r="34" spans="1:16" ht="34">
       <c r="A34" t="s">
         <v>53</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="C34" t="s">
         <v>52</v>
@@ -2460,19 +2505,25 @@
       <c r="E34" t="s">
         <v>73</v>
       </c>
-      <c r="J34" s="2"/>
-      <c r="K34" s="2"/>
-      <c r="L34" s="2"/>
-    </row>
-    <row r="35" spans="1:16" ht="51">
+      <c r="J34" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K34" s="2">
+        <v>500</v>
+      </c>
+      <c r="L34" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" ht="17">
       <c r="A35" t="s">
         <v>53</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="C35" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D35" t="s">
         <v>15</v>
@@ -2484,15 +2535,15 @@
       <c r="K35" s="2"/>
       <c r="L35" s="2"/>
     </row>
-    <row r="36" spans="1:16" ht="17">
+    <row r="36" spans="1:16" ht="51">
       <c r="A36" t="s">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>114</v>
+        <v>280</v>
       </c>
       <c r="C36" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="D36" t="s">
         <v>15</v>
@@ -2504,25 +2555,29 @@
       <c r="K36" s="2"/>
       <c r="L36" s="2"/>
     </row>
-    <row r="37" spans="1:16" ht="34">
+    <row r="37" spans="1:16" ht="17">
+      <c r="A37" t="s">
+        <v>24</v>
+      </c>
       <c r="B37" s="1" t="s">
-        <v>115</v>
+        <v>102</v>
+      </c>
+      <c r="C37" t="s">
+        <v>67</v>
       </c>
       <c r="D37" t="s">
         <v>15</v>
       </c>
       <c r="E37" t="s">
-        <v>23</v>
-      </c>
-      <c r="J37" s="2" t="s">
-        <v>17</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="J37" s="2"/>
       <c r="K37" s="2"/>
       <c r="L37" s="2"/>
     </row>
     <row r="38" spans="1:16" ht="34">
       <c r="B38" s="1" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="D38" t="s">
         <v>15</v>
@@ -2530,393 +2585,389 @@
       <c r="E38" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="39" spans="1:16" ht="51">
+      <c r="J38" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+    </row>
+    <row r="39" spans="1:16" ht="34">
       <c r="B39" s="1" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="D39" t="s">
         <v>15</v>
       </c>
       <c r="E39" t="s">
-        <v>118</v>
+        <v>23</v>
       </c>
     </row>
     <row r="40" spans="1:16" ht="51">
       <c r="B40" s="1" t="s">
-        <v>119</v>
+        <v>259</v>
       </c>
       <c r="D40" t="s">
         <v>15</v>
       </c>
       <c r="E40" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16" ht="17">
-      <c r="A41" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" ht="51">
+      <c r="B41" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D41" t="s">
+        <v>15</v>
+      </c>
+      <c r="E41" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" ht="17">
+      <c r="A42" t="s">
         <v>35</v>
       </c>
-      <c r="B41" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C41" t="s">
+      <c r="B42" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C42" t="s">
         <v>68</v>
       </c>
-      <c r="D41" t="s">
-        <v>15</v>
-      </c>
-      <c r="E41" t="s">
-        <v>118</v>
-      </c>
-      <c r="J41" s="2" t="s">
+      <c r="D42" t="s">
+        <v>15</v>
+      </c>
+      <c r="E42" t="s">
+        <v>105</v>
+      </c>
+      <c r="J42" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="K41" s="2">
+      <c r="K42" s="2">
         <v>500</v>
       </c>
-      <c r="L41" s="2" t="s">
+      <c r="L42" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="42" spans="1:16" ht="34">
-      <c r="B42" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="D42" t="s">
-        <v>15</v>
-      </c>
-      <c r="E42" t="s">
-        <v>118</v>
-      </c>
-      <c r="J42" s="2"/>
-      <c r="K42" s="2"/>
-      <c r="L42" s="2"/>
-      <c r="O42" t="s">
-        <v>324</v>
-      </c>
-      <c r="P42" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16" ht="17">
-      <c r="A43" t="s">
-        <v>2</v>
-      </c>
+    <row r="43" spans="1:16" ht="34">
       <c r="B43" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C43" t="s">
-        <v>31</v>
+        <v>108</v>
       </c>
       <c r="D43" t="s">
         <v>15</v>
       </c>
       <c r="E43" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="J43" s="2"/>
       <c r="K43" s="2"/>
       <c r="L43" s="2"/>
-    </row>
-    <row r="44" spans="1:16" ht="51">
+      <c r="O43" t="s">
+        <v>253</v>
+      </c>
+      <c r="P43" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" ht="17">
+      <c r="A44" t="s">
+        <v>2</v>
+      </c>
       <c r="B44" s="1" t="s">
-        <v>123</v>
+        <v>109</v>
+      </c>
+      <c r="C44" t="s">
+        <v>31</v>
       </c>
       <c r="D44" t="s">
         <v>15</v>
       </c>
       <c r="E44" t="s">
-        <v>118</v>
-      </c>
-      <c r="J44" s="2" t="s">
-        <v>17</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="J44" s="2"/>
       <c r="K44" s="2"/>
       <c r="L44" s="2"/>
     </row>
-    <row r="45" spans="1:16" ht="34">
+    <row r="45" spans="1:16" ht="51">
       <c r="B45" s="1" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="D45" t="s">
         <v>15</v>
       </c>
       <c r="E45" t="s">
-        <v>118</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="J45" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K45" s="2"/>
+      <c r="L45" s="2"/>
     </row>
     <row r="46" spans="1:16" ht="34">
       <c r="B46" s="1" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="D46" t="s">
         <v>15</v>
       </c>
       <c r="E46" t="s">
-        <v>118</v>
-      </c>
-      <c r="P46" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" ht="34">
+      <c r="B47" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D47" t="s">
+        <v>15</v>
+      </c>
+      <c r="E47" t="s">
+        <v>105</v>
+      </c>
+      <c r="P47" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16" ht="51">
-      <c r="B47" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="D47" t="s">
-        <v>15</v>
-      </c>
-      <c r="E47" t="s">
-        <v>118</v>
-      </c>
-      <c r="F47" t="s">
-        <v>326</v>
-      </c>
-      <c r="O47" t="s">
-        <v>48</v>
-      </c>
-      <c r="P47" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="48" spans="1:16" ht="51">
       <c r="B48" s="1" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="D48" t="s">
-        <v>316</v>
+        <v>15</v>
       </c>
       <c r="E48" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="49" spans="1:16" ht="34">
+        <v>105</v>
+      </c>
+      <c r="F48" t="s">
+        <v>255</v>
+      </c>
+      <c r="O48" t="s">
+        <v>48</v>
+      </c>
+      <c r="P48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" ht="51">
       <c r="B49" s="1" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="D49" t="s">
-        <v>15</v>
+        <v>246</v>
       </c>
       <c r="E49" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="50" spans="1:16" ht="17">
-      <c r="A50" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" ht="34">
+      <c r="B50" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D50" t="s">
+        <v>15</v>
+      </c>
+      <c r="E50" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" ht="17">
+      <c r="A51" t="s">
         <v>35</v>
       </c>
-      <c r="B50" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C50" t="s">
-        <v>109</v>
-      </c>
-      <c r="D50" t="s">
-        <v>15</v>
-      </c>
-      <c r="E50" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="51" spans="1:16" ht="51">
       <c r="B51" s="1" t="s">
-        <v>131</v>
+        <v>281</v>
+      </c>
+      <c r="C51" t="s">
+        <v>99</v>
       </c>
       <c r="D51" t="s">
         <v>15</v>
       </c>
       <c r="E51" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="52" spans="1:16" ht="17">
-      <c r="A52" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" ht="51">
+      <c r="B52" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="D52" t="s">
+        <v>15</v>
+      </c>
+      <c r="E52" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" ht="17">
+      <c r="A53" t="s">
         <v>64</v>
       </c>
-      <c r="B52" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="C52" t="s">
-        <v>133</v>
-      </c>
-      <c r="D52" t="s">
-        <v>15</v>
-      </c>
-      <c r="E52" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="53" spans="1:16" ht="34">
       <c r="B53" s="1" t="s">
-        <v>134</v>
+        <v>117</v>
+      </c>
+      <c r="C53" t="s">
+        <v>118</v>
       </c>
       <c r="D53" t="s">
         <v>15</v>
       </c>
       <c r="E53" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="54" spans="1:16" ht="17">
-      <c r="A54" t="s">
-        <v>64</v>
-      </c>
+        <v>251</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" ht="34">
       <c r="B54" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C54" t="s">
-        <v>136</v>
+        <v>283</v>
       </c>
       <c r="D54" t="s">
         <v>15</v>
       </c>
       <c r="E54" t="s">
-        <v>322</v>
+        <v>251</v>
       </c>
     </row>
     <row r="55" spans="1:16" ht="17">
       <c r="A55" t="s">
+        <v>64</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C55" t="s">
+        <v>120</v>
+      </c>
+      <c r="D55" t="s">
+        <v>15</v>
+      </c>
+      <c r="E55" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" ht="17">
+      <c r="A56" t="s">
         <v>24</v>
       </c>
-      <c r="B55" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C55" t="s">
-        <v>138</v>
-      </c>
-      <c r="D55" t="s">
-        <v>15</v>
-      </c>
-      <c r="E55" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="56" spans="1:16" ht="51">
       <c r="B56" s="1" t="s">
-        <v>139</v>
+        <v>121</v>
+      </c>
+      <c r="C56" t="s">
+        <v>122</v>
       </c>
       <c r="D56" t="s">
         <v>15</v>
       </c>
       <c r="E56" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="57" spans="1:16" ht="34">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" ht="51">
       <c r="B57" s="1" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="D57" t="s">
         <v>15</v>
       </c>
       <c r="E57" t="s">
-        <v>322</v>
+        <v>251</v>
       </c>
     </row>
     <row r="58" spans="1:16" ht="34">
       <c r="B58" s="1" t="s">
-        <v>141</v>
+        <v>284</v>
       </c>
       <c r="D58" t="s">
         <v>15</v>
       </c>
       <c r="E58" t="s">
-        <v>322</v>
+        <v>251</v>
       </c>
     </row>
     <row r="59" spans="1:16" ht="34">
-      <c r="A59" t="s">
+      <c r="B59" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D59" t="s">
+        <v>15</v>
+      </c>
+      <c r="E59" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" ht="34">
+      <c r="A60" t="s">
         <v>1</v>
       </c>
-      <c r="B59" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="C59" t="s">
+      <c r="B60" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="C60" t="s">
         <v>29</v>
       </c>
-      <c r="D59" t="s">
-        <v>15</v>
-      </c>
-      <c r="E59" t="s">
-        <v>143</v>
-      </c>
-      <c r="G59" s="3" t="s">
+      <c r="D60" t="s">
+        <v>15</v>
+      </c>
+      <c r="E60" t="s">
+        <v>125</v>
+      </c>
+      <c r="G60" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H59" s="3">
+      <c r="H60" s="3">
         <v>-500</v>
       </c>
-      <c r="I59" s="3" t="s">
+      <c r="I60" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="60" spans="1:16" ht="17">
-      <c r="A60" t="s">
+    <row r="61" spans="1:16" ht="17">
+      <c r="A61" t="s">
         <v>35</v>
       </c>
-      <c r="B60" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="C60" t="s">
-        <v>145</v>
-      </c>
-      <c r="D60" t="s">
-        <v>15</v>
-      </c>
-      <c r="E60" t="s">
-        <v>143</v>
-      </c>
-      <c r="G60" s="3"/>
-      <c r="H60" s="3"/>
-      <c r="I60" s="3"/>
-    </row>
-    <row r="61" spans="1:16" ht="34">
       <c r="B61" s="1" t="s">
-        <v>146</v>
+        <v>126</v>
+      </c>
+      <c r="C61" t="s">
+        <v>127</v>
       </c>
       <c r="D61" t="s">
         <v>15</v>
       </c>
       <c r="E61" t="s">
-        <v>143</v>
+        <v>125</v>
       </c>
       <c r="G61" s="3"/>
       <c r="H61" s="3"/>
       <c r="I61" s="3"/>
-      <c r="O61" t="s">
-        <v>48</v>
-      </c>
-      <c r="P61" t="s">
-        <v>22</v>
-      </c>
     </row>
     <row r="62" spans="1:16" ht="34">
-      <c r="A62" t="s">
-        <v>1</v>
-      </c>
       <c r="B62" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="C62" t="s">
-        <v>29</v>
+        <v>286</v>
       </c>
       <c r="D62" t="s">
         <v>15</v>
       </c>
       <c r="E62" t="s">
-        <v>143</v>
+        <v>125</v>
       </c>
       <c r="G62" s="3"/>
       <c r="H62" s="3"/>
       <c r="I62" s="3"/>
-    </row>
-    <row r="63" spans="1:16" ht="17">
+      <c r="O62" t="s">
+        <v>48</v>
+      </c>
+      <c r="P62" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" ht="34">
       <c r="A63" t="s">
         <v>1</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>148</v>
+        <v>287</v>
       </c>
       <c r="C63" t="s">
         <v>29</v>
@@ -2925,7 +2976,7 @@
         <v>15</v>
       </c>
       <c r="E63" t="s">
-        <v>143</v>
+        <v>125</v>
       </c>
       <c r="G63" s="3"/>
       <c r="H63" s="3"/>
@@ -2936,7 +2987,7 @@
         <v>1</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>149</v>
+        <v>128</v>
       </c>
       <c r="C64" t="s">
         <v>29</v>
@@ -2945,7 +2996,7 @@
         <v>15</v>
       </c>
       <c r="E64" t="s">
-        <v>143</v>
+        <v>125</v>
       </c>
       <c r="G64" s="3"/>
       <c r="H64" s="3"/>
@@ -2953,43 +3004,47 @@
     </row>
     <row r="65" spans="1:16" ht="17">
       <c r="A65" t="s">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>150</v>
+        <v>129</v>
       </c>
       <c r="C65" t="s">
-        <v>145</v>
+        <v>29</v>
       </c>
       <c r="D65" t="s">
         <v>15</v>
       </c>
       <c r="E65" t="s">
-        <v>143</v>
+        <v>125</v>
       </c>
       <c r="G65" s="3"/>
       <c r="H65" s="3"/>
       <c r="I65" s="3"/>
     </row>
-    <row r="66" spans="1:16" ht="34">
+    <row r="66" spans="1:16" ht="17">
+      <c r="A66" t="s">
+        <v>35</v>
+      </c>
       <c r="B66" s="1" t="s">
-        <v>151</v>
+        <v>130</v>
+      </c>
+      <c r="C66" t="s">
+        <v>127</v>
       </c>
       <c r="D66" t="s">
         <v>15</v>
       </c>
       <c r="E66" t="s">
-        <v>23</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>17</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="G66" s="3"/>
       <c r="H66" s="3"/>
       <c r="I66" s="3"/>
     </row>
-    <row r="67" spans="1:16" ht="51">
+    <row r="67" spans="1:16" ht="34">
       <c r="B67" s="1" t="s">
-        <v>152</v>
+        <v>288</v>
       </c>
       <c r="D67" t="s">
         <v>15</v>
@@ -2997,10 +3052,15 @@
       <c r="E67" t="s">
         <v>23</v>
       </c>
+      <c r="G67" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H67" s="3"/>
+      <c r="I67" s="3"/>
     </row>
     <row r="68" spans="1:16" ht="51">
       <c r="B68" s="1" t="s">
-        <v>153</v>
+        <v>289</v>
       </c>
       <c r="D68" t="s">
         <v>15</v>
@@ -3009,182 +3069,167 @@
         <v>23</v>
       </c>
     </row>
-    <row r="69" spans="1:16" ht="17">
+    <row r="69" spans="1:16" ht="51">
       <c r="B69" s="1" t="s">
-        <v>154</v>
+        <v>290</v>
       </c>
       <c r="D69" t="s">
         <v>15</v>
       </c>
       <c r="E69" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="70" spans="1:16" ht="34">
-      <c r="A70" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" ht="17">
+      <c r="B70" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D70" t="s">
+        <v>15</v>
+      </c>
+      <c r="E70" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" ht="34">
+      <c r="A71" t="s">
         <v>1</v>
       </c>
-      <c r="B70" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="C70" t="s">
+      <c r="B71" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="C71" t="s">
         <v>44</v>
       </c>
-      <c r="D70" t="s">
-        <v>15</v>
-      </c>
-      <c r="E70" t="s">
-        <v>155</v>
-      </c>
-      <c r="G70" s="3" t="s">
+      <c r="D71" t="s">
+        <v>15</v>
+      </c>
+      <c r="E71" t="s">
+        <v>132</v>
+      </c>
+      <c r="G71" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H70" s="3">
+      <c r="H71" s="3">
         <v>0</v>
       </c>
-      <c r="I70" s="3" t="s">
+      <c r="I71" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="J70" s="2" t="s">
+      <c r="J71" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="K70" s="2">
+      <c r="K71" s="2">
         <v>0</v>
       </c>
-      <c r="L70" s="2" t="s">
+      <c r="L71" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="O70" t="s">
+      <c r="O71" t="s">
         <v>48</v>
       </c>
-      <c r="P70" t="s">
+      <c r="P71" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="71" spans="1:16" ht="17">
-      <c r="A71" t="s">
+    <row r="72" spans="1:16" ht="17">
+      <c r="A72" t="s">
         <v>2</v>
       </c>
-      <c r="B71" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="C71" t="s">
-        <v>158</v>
-      </c>
-      <c r="D71" t="s">
-        <v>15</v>
-      </c>
-      <c r="E71" t="s">
-        <v>155</v>
-      </c>
-      <c r="G71" s="3"/>
-      <c r="H71" s="3"/>
-      <c r="I71" s="3"/>
-      <c r="J71" s="2"/>
-      <c r="K71" s="2"/>
-      <c r="L71" s="2"/>
-    </row>
-    <row r="72" spans="1:16" ht="51">
       <c r="B72" s="1" t="s">
-        <v>159</v>
+        <v>133</v>
+      </c>
+      <c r="C72" t="s">
+        <v>134</v>
       </c>
       <c r="D72" t="s">
         <v>15</v>
       </c>
       <c r="E72" t="s">
-        <v>23</v>
-      </c>
-      <c r="F72" t="s">
-        <v>160</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>17</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="G72" s="3"/>
       <c r="H72" s="3"/>
       <c r="I72" s="3"/>
-      <c r="J72" s="2" t="s">
-        <v>17</v>
-      </c>
+      <c r="J72" s="2"/>
       <c r="K72" s="2"/>
       <c r="L72" s="2"/>
     </row>
-    <row r="73" spans="1:16" ht="34">
+    <row r="73" spans="1:16" ht="51">
       <c r="B73" s="1" t="s">
-        <v>161</v>
+        <v>292</v>
       </c>
       <c r="D73" t="s">
         <v>15</v>
       </c>
       <c r="E73" t="s">
-        <v>162</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="F73" t="s">
+        <v>135</v>
+      </c>
+      <c r="G73" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H73" s="3"/>
+      <c r="I73" s="3"/>
+      <c r="J73" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K73" s="2"/>
+      <c r="L73" s="2"/>
     </row>
     <row r="74" spans="1:16" ht="34">
       <c r="B74" s="1" t="s">
-        <v>163</v>
+        <v>136</v>
       </c>
       <c r="D74" t="s">
         <v>15</v>
       </c>
       <c r="E74" t="s">
-        <v>162</v>
+        <v>137</v>
       </c>
     </row>
     <row r="75" spans="1:16" ht="34">
       <c r="B75" s="1" t="s">
-        <v>164</v>
+        <v>138</v>
       </c>
       <c r="D75" t="s">
         <v>15</v>
       </c>
       <c r="E75" t="s">
-        <v>162</v>
-      </c>
-      <c r="P75" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16" ht="34">
+      <c r="B76" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D76" t="s">
+        <v>15</v>
+      </c>
+      <c r="E76" t="s">
+        <v>137</v>
+      </c>
+      <c r="P76" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="76" spans="1:16" ht="17">
-      <c r="A76" t="s">
+    <row r="77" spans="1:16" ht="17">
+      <c r="A77" t="s">
         <v>53</v>
       </c>
-      <c r="B76" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="C76" t="s">
+      <c r="B77" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C77" t="s">
         <v>56</v>
       </c>
-      <c r="D76" t="s">
-        <v>15</v>
-      </c>
-      <c r="E76" t="s">
-        <v>162</v>
-      </c>
-      <c r="J76" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K76" s="2">
-        <v>500</v>
-      </c>
-      <c r="L76" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="77" spans="1:16" ht="34">
-      <c r="A77" t="s">
-        <v>166</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="C77" t="s">
-        <v>168</v>
-      </c>
       <c r="D77" t="s">
         <v>15</v>
       </c>
       <c r="E77" t="s">
-        <v>162</v>
+        <v>137</v>
       </c>
       <c r="J77" s="2" t="s">
         <v>22</v>
@@ -3193,24 +3238,24 @@
         <v>500</v>
       </c>
       <c r="L77" s="2" t="s">
-        <v>169</v>
+        <v>94</v>
       </c>
     </row>
     <row r="78" spans="1:16" ht="34">
       <c r="A78" t="s">
-        <v>50</v>
+        <v>140</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>170</v>
+        <v>294</v>
       </c>
       <c r="C78" t="s">
-        <v>54</v>
+        <v>141</v>
       </c>
       <c r="D78" t="s">
         <v>15</v>
       </c>
       <c r="E78" t="s">
-        <v>162</v>
+        <v>137</v>
       </c>
       <c r="J78" s="2" t="s">
         <v>22</v>
@@ -3219,24 +3264,24 @@
         <v>500</v>
       </c>
       <c r="L78" s="2" t="s">
-        <v>54</v>
+        <v>142</v>
       </c>
     </row>
     <row r="79" spans="1:16" ht="34">
       <c r="A79" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>171</v>
+        <v>143</v>
       </c>
       <c r="C79" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D79" t="s">
         <v>15</v>
       </c>
       <c r="E79" t="s">
-        <v>162</v>
+        <v>137</v>
       </c>
       <c r="J79" s="2" t="s">
         <v>22</v>
@@ -3245,64 +3290,64 @@
         <v>500</v>
       </c>
       <c r="L79" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16" ht="34">
+      <c r="A80" t="s">
+        <v>35</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C80" t="s">
+        <v>58</v>
+      </c>
+      <c r="D80" t="s">
+        <v>15</v>
+      </c>
+      <c r="E80" t="s">
+        <v>137</v>
+      </c>
+      <c r="J80" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K80" s="2">
+        <v>500</v>
+      </c>
+      <c r="L80" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="80" spans="1:16" ht="34">
-      <c r="B80" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="D80" t="s">
-        <v>15</v>
-      </c>
-      <c r="E80" t="s">
-        <v>162</v>
-      </c>
-      <c r="J80" s="2"/>
-      <c r="K80" s="2"/>
-      <c r="L80" s="2"/>
-    </row>
     <row r="81" spans="1:12" ht="34">
-      <c r="A81" t="s">
-        <v>39</v>
-      </c>
       <c r="B81" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="C81" t="s">
-        <v>174</v>
+        <v>295</v>
       </c>
       <c r="D81" t="s">
         <v>15</v>
       </c>
       <c r="E81" t="s">
-        <v>162</v>
-      </c>
-      <c r="J81" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K81" s="2">
-        <v>500</v>
-      </c>
-      <c r="L81" s="2" t="s">
-        <v>175</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="J81" s="2"/>
+      <c r="K81" s="2"/>
+      <c r="L81" s="2"/>
     </row>
     <row r="82" spans="1:12" ht="34">
       <c r="A82" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>176</v>
+        <v>145</v>
       </c>
       <c r="C82" t="s">
-        <v>177</v>
+        <v>146</v>
       </c>
       <c r="D82" t="s">
         <v>15</v>
       </c>
       <c r="E82" t="s">
-        <v>162</v>
+        <v>137</v>
       </c>
       <c r="J82" s="2" t="s">
         <v>22</v>
@@ -3311,411 +3356,417 @@
         <v>500</v>
       </c>
       <c r="L82" s="2" t="s">
-        <v>57</v>
+        <v>147</v>
       </c>
     </row>
     <row r="83" spans="1:12" ht="34">
       <c r="A83" t="s">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>178</v>
+        <v>296</v>
       </c>
       <c r="C83" t="s">
-        <v>44</v>
+        <v>148</v>
       </c>
       <c r="D83" t="s">
         <v>15</v>
       </c>
       <c r="E83" t="s">
-        <v>162</v>
-      </c>
-      <c r="J83" s="2"/>
-      <c r="K83" s="2"/>
-      <c r="L83" s="2"/>
+        <v>137</v>
+      </c>
+      <c r="J83" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K83" s="2">
+        <v>500</v>
+      </c>
+      <c r="L83" s="2" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="84" spans="1:12" ht="34">
       <c r="A84" t="s">
+        <v>1</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C84" t="s">
+        <v>44</v>
+      </c>
+      <c r="D84" t="s">
+        <v>15</v>
+      </c>
+      <c r="E84" t="s">
+        <v>137</v>
+      </c>
+      <c r="J84" s="2"/>
+      <c r="K84" s="2"/>
+      <c r="L84" s="2"/>
+    </row>
+    <row r="85" spans="1:12" ht="34">
+      <c r="A85" t="s">
         <v>45</v>
       </c>
-      <c r="B84" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="C84" t="s">
-        <v>180</v>
-      </c>
-      <c r="D84" t="s">
-        <v>15</v>
-      </c>
-      <c r="E84" t="s">
-        <v>162</v>
-      </c>
-      <c r="J84" s="2" t="s">
+      <c r="B85" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C85" t="s">
+        <v>151</v>
+      </c>
+      <c r="D85" t="s">
+        <v>15</v>
+      </c>
+      <c r="E85" t="s">
+        <v>137</v>
+      </c>
+      <c r="J85" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="K84" s="2">
+      <c r="K85" s="2">
         <v>500</v>
       </c>
-      <c r="L84" s="2" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="85" spans="1:12" ht="17">
-      <c r="A85" t="s">
+      <c r="L85" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" ht="17">
+      <c r="A86" t="s">
         <v>39</v>
       </c>
-      <c r="B85" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="C85" t="s">
-        <v>183</v>
-      </c>
-      <c r="D85" t="s">
-        <v>15</v>
-      </c>
-      <c r="E85" t="s">
-        <v>162</v>
-      </c>
-      <c r="J85" s="2"/>
-      <c r="K85" s="2"/>
-      <c r="L85" s="2"/>
-    </row>
-    <row r="86" spans="1:12" ht="34">
       <c r="B86" s="1" t="s">
-        <v>184</v>
+        <v>153</v>
+      </c>
+      <c r="C86" t="s">
+        <v>154</v>
       </c>
       <c r="D86" t="s">
         <v>15</v>
       </c>
       <c r="E86" t="s">
-        <v>162</v>
+        <v>137</v>
       </c>
       <c r="J86" s="2"/>
       <c r="K86" s="2"/>
       <c r="L86" s="2"/>
     </row>
     <row r="87" spans="1:12" ht="34">
-      <c r="A87" t="s">
-        <v>39</v>
-      </c>
       <c r="B87" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="C87" t="s">
-        <v>174</v>
+        <v>260</v>
       </c>
       <c r="D87" t="s">
         <v>15</v>
       </c>
       <c r="E87" t="s">
-        <v>162</v>
+        <v>137</v>
       </c>
       <c r="J87" s="2"/>
       <c r="K87" s="2"/>
       <c r="L87" s="2"/>
     </row>
-    <row r="88" spans="1:12" ht="51">
+    <row r="88" spans="1:12" ht="34">
       <c r="A88" t="s">
-        <v>2</v>
+        <v>39</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>186</v>
+        <v>155</v>
       </c>
       <c r="C88" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="D88" t="s">
         <v>15</v>
       </c>
       <c r="E88" t="s">
-        <v>162</v>
+        <v>137</v>
       </c>
       <c r="J88" s="2"/>
       <c r="K88" s="2"/>
       <c r="L88" s="2"/>
     </row>
-    <row r="89" spans="1:12" ht="34">
+    <row r="89" spans="1:12" ht="51">
       <c r="A89" t="s">
         <v>2</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>187</v>
+        <v>261</v>
       </c>
       <c r="C89" t="s">
-        <v>158</v>
+        <v>134</v>
       </c>
       <c r="D89" t="s">
         <v>15</v>
       </c>
       <c r="E89" t="s">
-        <v>162</v>
+        <v>137</v>
       </c>
       <c r="J89" s="2"/>
       <c r="K89" s="2"/>
       <c r="L89" s="2"/>
     </row>
-    <row r="90" spans="1:12" ht="17">
+    <row r="90" spans="1:12" ht="34">
       <c r="A90" t="s">
         <v>2</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>188</v>
+        <v>297</v>
       </c>
       <c r="C90" t="s">
-        <v>32</v>
+        <v>134</v>
       </c>
       <c r="D90" t="s">
         <v>15</v>
       </c>
       <c r="E90" t="s">
-        <v>162</v>
-      </c>
-      <c r="J90" s="2" t="s">
-        <v>17</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="J90" s="2"/>
       <c r="K90" s="2"/>
       <c r="L90" s="2"/>
     </row>
-    <row r="91" spans="1:12" ht="51">
+    <row r="91" spans="1:12" ht="17">
+      <c r="A91" t="s">
+        <v>2</v>
+      </c>
       <c r="B91" s="1" t="s">
-        <v>189</v>
+        <v>156</v>
+      </c>
+      <c r="C91" t="s">
+        <v>32</v>
       </c>
       <c r="D91" t="s">
         <v>15</v>
       </c>
       <c r="E91" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="92" spans="1:12" ht="34">
-      <c r="A92" t="s">
-        <v>1</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="J91" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K91" s="2"/>
+      <c r="L91" s="2"/>
+    </row>
+    <row r="92" spans="1:12" ht="51">
       <c r="B92" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="C92" t="s">
-        <v>33</v>
+        <v>298</v>
       </c>
       <c r="D92" t="s">
         <v>15</v>
       </c>
       <c r="E92" t="s">
-        <v>162</v>
-      </c>
-      <c r="G92" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H92" s="3">
-        <v>-500</v>
-      </c>
-      <c r="I92" s="3" t="s">
-        <v>44</v>
+        <v>137</v>
       </c>
     </row>
     <row r="93" spans="1:12" ht="34">
       <c r="A93" t="s">
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>191</v>
+        <v>157</v>
       </c>
       <c r="C93" t="s">
-        <v>192</v>
+        <v>33</v>
       </c>
       <c r="D93" t="s">
         <v>15</v>
       </c>
       <c r="E93" t="s">
-        <v>162</v>
-      </c>
-      <c r="G93" s="3"/>
-      <c r="H93" s="3"/>
-      <c r="I93" s="3"/>
+        <v>137</v>
+      </c>
+      <c r="G93" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H93" s="3">
+        <v>-500</v>
+      </c>
+      <c r="I93" s="3" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="94" spans="1:12" ht="34">
       <c r="A94" t="s">
-        <v>166</v>
+        <v>41</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>193</v>
+        <v>158</v>
       </c>
       <c r="C94" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="D94" t="s">
         <v>15</v>
       </c>
       <c r="E94" t="s">
-        <v>162</v>
+        <v>137</v>
       </c>
       <c r="G94" s="3"/>
       <c r="H94" s="3"/>
       <c r="I94" s="3"/>
     </row>
-    <row r="95" spans="1:12" ht="17">
+    <row r="95" spans="1:12" ht="34">
       <c r="A95" t="s">
-        <v>39</v>
+        <v>140</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>194</v>
+        <v>160</v>
       </c>
       <c r="C95" t="s">
-        <v>174</v>
+        <v>141</v>
       </c>
       <c r="D95" t="s">
         <v>15</v>
       </c>
       <c r="E95" t="s">
-        <v>162</v>
-      </c>
-      <c r="G95" s="3" t="s">
-        <v>17</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="G95" s="3"/>
       <c r="H95" s="3"/>
       <c r="I95" s="3"/>
     </row>
-    <row r="96" spans="1:12" ht="34">
+    <row r="96" spans="1:12" ht="17">
       <c r="A96" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>195</v>
+        <v>161</v>
       </c>
       <c r="C96" t="s">
-        <v>69</v>
+        <v>146</v>
       </c>
       <c r="D96" t="s">
         <v>15</v>
       </c>
       <c r="E96" t="s">
-        <v>162</v>
-      </c>
-      <c r="J96" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K96" s="2">
-        <v>500</v>
-      </c>
-      <c r="L96" s="2" t="s">
-        <v>196</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="G96" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H96" s="3"/>
+      <c r="I96" s="3"/>
     </row>
     <row r="97" spans="1:12" ht="34">
       <c r="A97" t="s">
         <v>35</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>197</v>
+        <v>162</v>
       </c>
       <c r="C97" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="D97" t="s">
         <v>15</v>
       </c>
       <c r="E97" t="s">
-        <v>162</v>
-      </c>
-      <c r="J97" s="2"/>
-      <c r="K97" s="2"/>
-      <c r="L97" s="2"/>
+        <v>137</v>
+      </c>
+      <c r="J97" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K97" s="2">
+        <v>500</v>
+      </c>
+      <c r="L97" s="2" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="98" spans="1:12" ht="34">
       <c r="A98" t="s">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>198</v>
+        <v>164</v>
       </c>
       <c r="C98" t="s">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="D98" t="s">
         <v>15</v>
       </c>
       <c r="E98" t="s">
-        <v>162</v>
+        <v>137</v>
       </c>
       <c r="J98" s="2"/>
       <c r="K98" s="2"/>
       <c r="L98" s="2"/>
     </row>
-    <row r="99" spans="1:12" ht="17">
+    <row r="99" spans="1:12" ht="34">
       <c r="A99" t="s">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>199</v>
+        <v>165</v>
       </c>
       <c r="C99" t="s">
-        <v>177</v>
+        <v>29</v>
       </c>
       <c r="D99" t="s">
         <v>15</v>
       </c>
       <c r="E99" t="s">
-        <v>162</v>
+        <v>137</v>
       </c>
       <c r="J99" s="2"/>
       <c r="K99" s="2"/>
       <c r="L99" s="2"/>
     </row>
-    <row r="100" spans="1:12" ht="34">
+    <row r="100" spans="1:12" ht="17">
       <c r="A100" t="s">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>200</v>
+        <v>166</v>
       </c>
       <c r="C100" t="s">
-        <v>29</v>
+        <v>148</v>
       </c>
       <c r="D100" t="s">
         <v>15</v>
       </c>
       <c r="E100" t="s">
-        <v>162</v>
+        <v>137</v>
       </c>
       <c r="J100" s="2"/>
       <c r="K100" s="2"/>
       <c r="L100" s="2"/>
     </row>
-    <row r="101" spans="1:12" ht="17">
+    <row r="101" spans="1:12" ht="34">
       <c r="A101" t="s">
-        <v>166</v>
+        <v>1</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>201</v>
+        <v>299</v>
       </c>
       <c r="C101" t="s">
-        <v>202</v>
+        <v>29</v>
       </c>
       <c r="D101" t="s">
         <v>15</v>
       </c>
       <c r="E101" t="s">
-        <v>162</v>
+        <v>137</v>
       </c>
       <c r="J101" s="2"/>
       <c r="K101" s="2"/>
       <c r="L101" s="2"/>
     </row>
-    <row r="102" spans="1:12" ht="34">
+    <row r="102" spans="1:12" ht="17">
       <c r="A102" t="s">
-        <v>1</v>
+        <v>140</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>203</v>
+        <v>167</v>
       </c>
       <c r="C102" t="s">
-        <v>44</v>
+        <v>168</v>
       </c>
       <c r="D102" t="s">
         <v>15</v>
       </c>
       <c r="E102" t="s">
-        <v>162</v>
+        <v>137</v>
       </c>
       <c r="J102" s="2"/>
       <c r="K102" s="2"/>
@@ -3723,84 +3774,78 @@
     </row>
     <row r="103" spans="1:12" ht="34">
       <c r="A103" t="s">
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>204</v>
+        <v>169</v>
       </c>
       <c r="C103" t="s">
-        <v>192</v>
+        <v>44</v>
       </c>
       <c r="D103" t="s">
         <v>15</v>
       </c>
       <c r="E103" t="s">
-        <v>162</v>
+        <v>137</v>
       </c>
       <c r="J103" s="2"/>
       <c r="K103" s="2"/>
       <c r="L103" s="2"/>
     </row>
-    <row r="104" spans="1:12" ht="51">
+    <row r="104" spans="1:12" ht="34">
+      <c r="A104" t="s">
+        <v>41</v>
+      </c>
       <c r="B104" s="1" t="s">
-        <v>205</v>
+        <v>170</v>
+      </c>
+      <c r="C104" t="s">
+        <v>159</v>
       </c>
       <c r="D104" t="s">
         <v>15</v>
       </c>
       <c r="E104" t="s">
-        <v>162</v>
+        <v>137</v>
       </c>
       <c r="J104" s="2"/>
       <c r="K104" s="2"/>
       <c r="L104" s="2"/>
     </row>
-    <row r="105" spans="1:12" ht="17">
+    <row r="105" spans="1:12" ht="51">
       <c r="B105" s="1" t="s">
-        <v>206</v>
+        <v>300</v>
       </c>
       <c r="D105" t="s">
         <v>15</v>
       </c>
       <c r="E105" t="s">
-        <v>162</v>
+        <v>137</v>
       </c>
       <c r="J105" s="2"/>
       <c r="K105" s="2"/>
       <c r="L105" s="2"/>
     </row>
-    <row r="106" spans="1:12" ht="34">
-      <c r="A106" t="s">
-        <v>35</v>
-      </c>
+    <row r="106" spans="1:12" ht="17">
       <c r="B106" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="C106" t="s">
-        <v>60</v>
+        <v>171</v>
       </c>
       <c r="D106" t="s">
         <v>15</v>
       </c>
       <c r="E106" t="s">
-        <v>162</v>
-      </c>
-      <c r="J106" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K106" s="2">
-        <v>500</v>
-      </c>
-      <c r="L106" s="2" t="s">
-        <v>60</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="J106" s="2"/>
+      <c r="K106" s="2"/>
+      <c r="L106" s="2"/>
     </row>
     <row r="107" spans="1:12" ht="34">
       <c r="A107" t="s">
         <v>35</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>208</v>
+        <v>172</v>
       </c>
       <c r="C107" t="s">
         <v>60</v>
@@ -3809,27 +3854,33 @@
         <v>15</v>
       </c>
       <c r="E107" t="s">
-        <v>162</v>
-      </c>
-      <c r="J107" s="2"/>
-      <c r="K107" s="2"/>
-      <c r="L107" s="2"/>
-    </row>
-    <row r="108" spans="1:12" ht="17">
+        <v>137</v>
+      </c>
+      <c r="J107" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K107" s="2">
+        <v>500</v>
+      </c>
+      <c r="L107" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" ht="34">
       <c r="A108" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>209</v>
+        <v>301</v>
       </c>
       <c r="C108" t="s">
-        <v>180</v>
+        <v>60</v>
       </c>
       <c r="D108" t="s">
         <v>15</v>
       </c>
       <c r="E108" t="s">
-        <v>162</v>
+        <v>137</v>
       </c>
       <c r="J108" s="2"/>
       <c r="K108" s="2"/>
@@ -3837,39 +3888,39 @@
     </row>
     <row r="109" spans="1:12" ht="17">
       <c r="A109" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>210</v>
+        <v>173</v>
       </c>
       <c r="C109" t="s">
-        <v>174</v>
+        <v>151</v>
       </c>
       <c r="D109" t="s">
         <v>15</v>
       </c>
       <c r="E109" t="s">
-        <v>162</v>
+        <v>137</v>
       </c>
       <c r="J109" s="2"/>
       <c r="K109" s="2"/>
       <c r="L109" s="2"/>
     </row>
-    <row r="110" spans="1:12" ht="34">
+    <row r="110" spans="1:12" ht="17">
       <c r="A110" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>211</v>
+        <v>174</v>
       </c>
       <c r="C110" t="s">
-        <v>59</v>
+        <v>146</v>
       </c>
       <c r="D110" t="s">
         <v>15</v>
       </c>
       <c r="E110" t="s">
-        <v>162</v>
+        <v>137</v>
       </c>
       <c r="J110" s="2"/>
       <c r="K110" s="2"/>
@@ -3880,7 +3931,7 @@
         <v>35</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>212</v>
+        <v>175</v>
       </c>
       <c r="C111" t="s">
         <v>59</v>
@@ -3889,307 +3940,321 @@
         <v>15</v>
       </c>
       <c r="E111" t="s">
-        <v>162</v>
+        <v>137</v>
       </c>
       <c r="J111" s="2"/>
       <c r="K111" s="2"/>
       <c r="L111" s="2"/>
     </row>
-    <row r="112" spans="1:12" ht="17">
+    <row r="112" spans="1:12" ht="34">
       <c r="A112" t="s">
         <v>35</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>213</v>
+        <v>176</v>
       </c>
       <c r="C112" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D112" t="s">
         <v>15</v>
       </c>
       <c r="E112" t="s">
-        <v>162</v>
+        <v>137</v>
       </c>
       <c r="J112" s="2"/>
       <c r="K112" s="2"/>
       <c r="L112" s="2"/>
     </row>
-    <row r="113" spans="1:12" ht="17">
+    <row r="113" spans="1:14" ht="17">
       <c r="A113" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>214</v>
+        <v>177</v>
       </c>
       <c r="C113" t="s">
-        <v>215</v>
+        <v>58</v>
       </c>
       <c r="D113" t="s">
         <v>15</v>
       </c>
       <c r="E113" t="s">
-        <v>162</v>
+        <v>137</v>
       </c>
       <c r="J113" s="2"/>
       <c r="K113" s="2"/>
       <c r="L113" s="2"/>
     </row>
-    <row r="114" spans="1:12" ht="34">
+    <row r="114" spans="1:14" ht="17">
       <c r="A114" t="s">
+        <v>41</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C114" t="s">
+        <v>179</v>
+      </c>
+      <c r="D114" t="s">
+        <v>15</v>
+      </c>
+      <c r="E114" t="s">
+        <v>137</v>
+      </c>
+      <c r="J114" s="2"/>
+      <c r="K114" s="2"/>
+      <c r="L114" s="2"/>
+    </row>
+    <row r="115" spans="1:14" ht="34">
+      <c r="A115" t="s">
         <v>35</v>
       </c>
-      <c r="B114" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="C114" t="s">
+      <c r="B115" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C115" t="s">
         <v>58</v>
       </c>
-      <c r="D114" t="s">
-        <v>15</v>
-      </c>
-      <c r="E114" t="s">
-        <v>162</v>
-      </c>
-      <c r="J114" s="2" t="s">
+      <c r="D115" t="s">
+        <v>15</v>
+      </c>
+      <c r="E115" t="s">
+        <v>137</v>
+      </c>
+      <c r="J115" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="K114" s="2">
+      <c r="K115" s="2">
         <v>500</v>
       </c>
-      <c r="L114" s="2" t="s">
+      <c r="L115" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="115" spans="1:12" ht="34">
-      <c r="A115" t="s">
+    <row r="116" spans="1:14" ht="34">
+      <c r="A116" t="s">
         <v>45</v>
       </c>
-      <c r="B115" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="C115" t="s">
-        <v>218</v>
-      </c>
-      <c r="D115" t="s">
-        <v>15</v>
-      </c>
-      <c r="E115" t="s">
-        <v>162</v>
-      </c>
-      <c r="J115" s="2"/>
-      <c r="K115" s="2"/>
-      <c r="L115" s="2"/>
-    </row>
-    <row r="116" spans="1:12" ht="34">
       <c r="B116" s="1" t="s">
-        <v>219</v>
+        <v>181</v>
+      </c>
+      <c r="C116" t="s">
+        <v>182</v>
       </c>
       <c r="D116" t="s">
         <v>15</v>
       </c>
       <c r="E116" t="s">
-        <v>162</v>
+        <v>137</v>
       </c>
       <c r="J116" s="2"/>
       <c r="K116" s="2"/>
       <c r="L116" s="2"/>
     </row>
-    <row r="117" spans="1:12" ht="34">
+    <row r="117" spans="1:14" ht="34">
       <c r="B117" s="1" t="s">
-        <v>220</v>
+        <v>302</v>
       </c>
       <c r="D117" t="s">
         <v>15</v>
       </c>
       <c r="E117" t="s">
-        <v>162</v>
+        <v>137</v>
       </c>
       <c r="J117" s="2"/>
       <c r="K117" s="2"/>
       <c r="L117" s="2"/>
     </row>
-    <row r="118" spans="1:12" ht="34">
-      <c r="A118" t="s">
-        <v>62</v>
-      </c>
+    <row r="118" spans="1:14" ht="34">
       <c r="B118" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="C118" t="s">
-        <v>222</v>
+        <v>303</v>
       </c>
       <c r="D118" t="s">
         <v>15</v>
       </c>
       <c r="E118" t="s">
-        <v>162</v>
+        <v>137</v>
       </c>
       <c r="J118" s="2"/>
       <c r="K118" s="2"/>
       <c r="L118" s="2"/>
     </row>
-    <row r="119" spans="1:12" ht="34">
+    <row r="119" spans="1:14" ht="34">
+      <c r="A119" t="s">
+        <v>62</v>
+      </c>
       <c r="B119" s="1" t="s">
-        <v>223</v>
+        <v>304</v>
+      </c>
+      <c r="C119" t="s">
+        <v>183</v>
       </c>
       <c r="D119" t="s">
         <v>15</v>
       </c>
       <c r="E119" t="s">
-        <v>162</v>
+        <v>137</v>
       </c>
       <c r="J119" s="2"/>
       <c r="K119" s="2"/>
       <c r="L119" s="2"/>
-    </row>
-    <row r="120" spans="1:12" ht="34">
-      <c r="A120" t="s">
-        <v>35</v>
-      </c>
+      <c r="M119" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="N119" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14" ht="34">
       <c r="B120" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="C120" t="s">
-        <v>68</v>
+        <v>184</v>
       </c>
       <c r="D120" t="s">
         <v>15</v>
       </c>
       <c r="E120" t="s">
-        <v>162</v>
-      </c>
-      <c r="J120" s="2" t="s">
-        <v>17</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="J120" s="2"/>
       <c r="K120" s="2"/>
       <c r="L120" s="2"/>
-    </row>
-    <row r="121" spans="1:12" ht="17">
+      <c r="M120" s="4"/>
+      <c r="N120" s="4"/>
+    </row>
+    <row r="121" spans="1:14" ht="34">
+      <c r="A121" t="s">
+        <v>35</v>
+      </c>
       <c r="B121" s="1" t="s">
-        <v>225</v>
+        <v>305</v>
+      </c>
+      <c r="C121" t="s">
+        <v>68</v>
       </c>
       <c r="D121" t="s">
         <v>15</v>
       </c>
       <c r="E121" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="122" spans="1:12" ht="51">
+        <v>137</v>
+      </c>
+      <c r="J121" s="2"/>
+      <c r="K121" s="2"/>
+      <c r="L121" s="2"/>
+      <c r="M121" s="4"/>
+      <c r="N121" s="4"/>
+    </row>
+    <row r="122" spans="1:14" ht="17">
+      <c r="A122" t="s">
+        <v>35</v>
+      </c>
       <c r="B122" s="1" t="s">
-        <v>226</v>
+        <v>306</v>
+      </c>
+      <c r="C122" t="s">
+        <v>68</v>
       </c>
       <c r="D122" t="s">
         <v>15</v>
       </c>
       <c r="E122" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="123" spans="1:12" ht="34">
+        <v>137</v>
+      </c>
+      <c r="J122" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K122" s="2"/>
+      <c r="L122" s="2"/>
+      <c r="M122" s="4"/>
+      <c r="N122" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14" ht="17">
       <c r="B123" s="1" t="s">
-        <v>227</v>
+        <v>185</v>
       </c>
       <c r="D123" t="s">
         <v>15</v>
       </c>
       <c r="E123" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="124" spans="1:12" ht="34">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14" ht="51">
       <c r="B124" s="1" t="s">
-        <v>228</v>
+        <v>186</v>
       </c>
       <c r="D124" t="s">
         <v>15</v>
       </c>
       <c r="E124" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="125" spans="1:12" ht="34">
-      <c r="A125" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14" ht="34">
+      <c r="B125" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D125" t="s">
+        <v>15</v>
+      </c>
+      <c r="E125" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14" ht="34">
+      <c r="B126" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="D126" t="s">
+        <v>15</v>
+      </c>
+      <c r="E126" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="127" spans="1:14" ht="34">
+      <c r="A127" t="s">
         <v>1</v>
       </c>
-      <c r="B125" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="C125" t="s">
+      <c r="B127" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="C127" t="s">
         <v>44</v>
       </c>
-      <c r="D125" t="s">
-        <v>15</v>
-      </c>
-      <c r="E125" t="s">
-        <v>162</v>
-      </c>
-      <c r="G125" s="3" t="s">
+      <c r="D127" t="s">
+        <v>15</v>
+      </c>
+      <c r="E127" t="s">
+        <v>137</v>
+      </c>
+      <c r="G127" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H125" s="3">
+      <c r="H127" s="3">
         <v>-500</v>
       </c>
-      <c r="I125" s="3" t="s">
+      <c r="I127" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="126" spans="1:12" ht="51">
-      <c r="A126" t="s">
-        <v>1</v>
-      </c>
-      <c r="B126" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="C126" t="s">
-        <v>33</v>
-      </c>
-      <c r="D126" t="s">
-        <v>15</v>
-      </c>
-      <c r="E126" t="s">
-        <v>162</v>
-      </c>
-      <c r="G126" s="3"/>
-      <c r="H126" s="3"/>
-      <c r="I126" s="3"/>
-    </row>
-    <row r="127" spans="1:12" ht="17">
-      <c r="A127" t="s">
-        <v>35</v>
-      </c>
-      <c r="B127" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="C127" t="s">
-        <v>145</v>
-      </c>
-      <c r="D127" t="s">
-        <v>15</v>
-      </c>
-      <c r="E127" t="s">
-        <v>162</v>
-      </c>
-      <c r="G127" s="3"/>
-      <c r="H127" s="3"/>
-      <c r="I127" s="3"/>
-    </row>
-    <row r="128" spans="1:12" ht="34">
+    <row r="128" spans="1:14" ht="51">
       <c r="A128" t="s">
         <v>1</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>232</v>
+        <v>308</v>
       </c>
       <c r="C128" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="D128" t="s">
         <v>15</v>
       </c>
       <c r="E128" t="s">
-        <v>162</v>
+        <v>137</v>
       </c>
       <c r="G128" s="3"/>
       <c r="H128" s="3"/>
@@ -4200,27 +4265,27 @@
         <v>35</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>233</v>
+        <v>263</v>
       </c>
       <c r="C129" t="s">
-        <v>69</v>
+        <v>127</v>
       </c>
       <c r="D129" t="s">
         <v>15</v>
       </c>
       <c r="E129" t="s">
-        <v>162</v>
+        <v>137</v>
       </c>
       <c r="G129" s="3"/>
       <c r="H129" s="3"/>
       <c r="I129" s="3"/>
     </row>
-    <row r="130" spans="1:12" ht="17">
+    <row r="130" spans="1:12" ht="34">
       <c r="A130" t="s">
         <v>1</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>234</v>
+        <v>309</v>
       </c>
       <c r="C130" t="s">
         <v>14</v>
@@ -4229,33 +4294,27 @@
         <v>15</v>
       </c>
       <c r="E130" t="s">
-        <v>162</v>
-      </c>
-      <c r="G130" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H130" s="3">
-        <v>-500</v>
-      </c>
-      <c r="I130" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="131" spans="1:12" ht="34">
+        <v>137</v>
+      </c>
+      <c r="G130" s="3"/>
+      <c r="H130" s="3"/>
+      <c r="I130" s="3"/>
+    </row>
+    <row r="131" spans="1:12" ht="17">
       <c r="A131" t="s">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>235</v>
+        <v>188</v>
       </c>
       <c r="C131" t="s">
-        <v>14</v>
+        <v>69</v>
       </c>
       <c r="D131" t="s">
         <v>15</v>
       </c>
       <c r="E131" t="s">
-        <v>162</v>
+        <v>137</v>
       </c>
       <c r="G131" s="3"/>
       <c r="H131" s="3"/>
@@ -4266,7 +4325,7 @@
         <v>1</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>236</v>
+        <v>264</v>
       </c>
       <c r="C132" t="s">
         <v>14</v>
@@ -4275,38 +4334,44 @@
         <v>15</v>
       </c>
       <c r="E132" t="s">
-        <v>162</v>
-      </c>
-      <c r="G132" s="3"/>
-      <c r="H132" s="3"/>
-      <c r="I132" s="3"/>
-    </row>
-    <row r="133" spans="1:12" ht="17">
+        <v>137</v>
+      </c>
+      <c r="G132" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H132" s="3">
+        <v>-500</v>
+      </c>
+      <c r="I132" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12" ht="34">
       <c r="A133" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>237</v>
+        <v>265</v>
       </c>
       <c r="C133" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="D133" t="s">
         <v>15</v>
       </c>
       <c r="E133" t="s">
-        <v>162</v>
+        <v>137</v>
       </c>
       <c r="G133" s="3"/>
       <c r="H133" s="3"/>
       <c r="I133" s="3"/>
     </row>
-    <row r="134" spans="1:12" ht="34">
+    <row r="134" spans="1:12" ht="17">
       <c r="A134" t="s">
         <v>1</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>238</v>
+        <v>310</v>
       </c>
       <c r="C134" t="s">
         <v>14</v>
@@ -4315,7 +4380,7 @@
         <v>15</v>
       </c>
       <c r="E134" t="s">
-        <v>162</v>
+        <v>137</v>
       </c>
       <c r="G134" s="3"/>
       <c r="H134" s="3"/>
@@ -4323,93 +4388,81 @@
     </row>
     <row r="135" spans="1:12" ht="17">
       <c r="A135" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>239</v>
+        <v>266</v>
       </c>
       <c r="C135" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="D135" t="s">
         <v>15</v>
       </c>
       <c r="E135" t="s">
-        <v>162</v>
-      </c>
-      <c r="G135" s="3" t="s">
-        <v>17</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="G135" s="3"/>
       <c r="H135" s="3"/>
       <c r="I135" s="3"/>
     </row>
     <row r="136" spans="1:12" ht="34">
       <c r="A136" t="s">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>240</v>
+        <v>311</v>
       </c>
       <c r="C136" t="s">
-        <v>241</v>
+        <v>14</v>
       </c>
       <c r="D136" t="s">
         <v>15</v>
       </c>
       <c r="E136" t="s">
-        <v>162</v>
-      </c>
-      <c r="J136" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K136" s="2">
-        <v>500</v>
-      </c>
-      <c r="L136" s="2" t="s">
-        <v>241</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="G136" s="3"/>
+      <c r="H136" s="3"/>
+      <c r="I136" s="3"/>
     </row>
     <row r="137" spans="1:12" ht="17">
       <c r="A137" t="s">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>242</v>
+        <v>189</v>
       </c>
       <c r="C137" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="D137" t="s">
         <v>15</v>
       </c>
       <c r="E137" t="s">
-        <v>162</v>
-      </c>
-      <c r="J137" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K137" s="2">
-        <v>500</v>
-      </c>
-      <c r="L137" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="138" spans="1:12" ht="17">
+        <v>137</v>
+      </c>
+      <c r="G137" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H137" s="3"/>
+      <c r="I137" s="3"/>
+    </row>
+    <row r="138" spans="1:12" ht="34">
       <c r="A138" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>243</v>
+        <v>312</v>
       </c>
       <c r="C138" t="s">
-        <v>69</v>
+        <v>190</v>
       </c>
       <c r="D138" t="s">
         <v>15</v>
       </c>
       <c r="E138" t="s">
-        <v>162</v>
+        <v>137</v>
       </c>
       <c r="J138" s="2" t="s">
         <v>22</v>
@@ -4418,44 +4471,50 @@
         <v>500</v>
       </c>
       <c r="L138" s="2" t="s">
-        <v>36</v>
+        <v>190</v>
       </c>
     </row>
     <row r="139" spans="1:12" ht="17">
       <c r="A139" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>244</v>
+        <v>191</v>
       </c>
       <c r="C139" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="D139" t="s">
         <v>15</v>
       </c>
       <c r="E139" t="s">
-        <v>162</v>
-      </c>
-      <c r="J139" s="2"/>
-      <c r="K139" s="2"/>
-      <c r="L139" s="2"/>
+        <v>137</v>
+      </c>
+      <c r="J139" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K139" s="2">
+        <v>500</v>
+      </c>
+      <c r="L139" s="2" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="140" spans="1:12" ht="17">
       <c r="A140" t="s">
-        <v>166</v>
+        <v>35</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>245</v>
+        <v>313</v>
       </c>
       <c r="C140" t="s">
-        <v>246</v>
+        <v>69</v>
       </c>
       <c r="D140" t="s">
         <v>15</v>
       </c>
       <c r="E140" t="s">
-        <v>162</v>
+        <v>137</v>
       </c>
       <c r="J140" s="2" t="s">
         <v>22</v>
@@ -4464,24 +4523,24 @@
         <v>500</v>
       </c>
       <c r="L140" s="2" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="141" spans="1:12" ht="34">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12" ht="17">
       <c r="A141" t="s">
-        <v>166</v>
+        <v>35</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>247</v>
+        <v>192</v>
       </c>
       <c r="C141" t="s">
-        <v>246</v>
+        <v>69</v>
       </c>
       <c r="D141" t="s">
         <v>15</v>
       </c>
       <c r="E141" t="s">
-        <v>162</v>
+        <v>137</v>
       </c>
       <c r="J141" s="2"/>
       <c r="K141" s="2"/>
@@ -4489,19 +4548,19 @@
     </row>
     <row r="142" spans="1:12" ht="17">
       <c r="A142" t="s">
-        <v>41</v>
+        <v>140</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>248</v>
+        <v>193</v>
       </c>
       <c r="C142" t="s">
-        <v>42</v>
+        <v>194</v>
       </c>
       <c r="D142" t="s">
         <v>15</v>
       </c>
       <c r="E142" t="s">
-        <v>162</v>
+        <v>137</v>
       </c>
       <c r="J142" s="2" t="s">
         <v>22</v>
@@ -4510,44 +4569,44 @@
         <v>500</v>
       </c>
       <c r="L142" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="143" spans="1:12" ht="17">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12" ht="34">
       <c r="A143" t="s">
-        <v>41</v>
+        <v>140</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>249</v>
+        <v>195</v>
       </c>
       <c r="C143" t="s">
-        <v>42</v>
+        <v>194</v>
       </c>
       <c r="D143" t="s">
         <v>15</v>
       </c>
       <c r="E143" t="s">
-        <v>162</v>
+        <v>137</v>
       </c>
       <c r="J143" s="2"/>
       <c r="K143" s="2"/>
       <c r="L143" s="2"/>
     </row>
-    <row r="144" spans="1:12" ht="34">
+    <row r="144" spans="1:12" ht="17">
       <c r="A144" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>250</v>
+        <v>196</v>
       </c>
       <c r="C144" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D144" t="s">
         <v>15</v>
       </c>
       <c r="E144" t="s">
-        <v>162</v>
+        <v>137</v>
       </c>
       <c r="J144" s="2" t="s">
         <v>22</v>
@@ -4556,44 +4615,44 @@
         <v>500</v>
       </c>
       <c r="L144" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="145" spans="1:12" ht="34">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12" ht="17">
       <c r="A145" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>251</v>
+        <v>197</v>
       </c>
       <c r="C145" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D145" t="s">
         <v>15</v>
       </c>
       <c r="E145" t="s">
-        <v>162</v>
+        <v>137</v>
       </c>
       <c r="J145" s="2"/>
       <c r="K145" s="2"/>
       <c r="L145" s="2"/>
     </row>
-    <row r="146" spans="1:12" ht="34">
+    <row r="146" spans="1:12" ht="17">
       <c r="A146" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>252</v>
+        <v>267</v>
       </c>
       <c r="C146" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="D146" t="s">
         <v>15</v>
       </c>
       <c r="E146" t="s">
-        <v>162</v>
+        <v>137</v>
       </c>
       <c r="J146" s="2" t="s">
         <v>22</v>
@@ -4602,44 +4661,44 @@
         <v>500</v>
       </c>
       <c r="L146" s="2" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
     </row>
     <row r="147" spans="1:12" ht="34">
       <c r="A147" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>253</v>
+        <v>198</v>
       </c>
       <c r="C147" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="D147" t="s">
         <v>15</v>
       </c>
       <c r="E147" t="s">
-        <v>162</v>
+        <v>137</v>
       </c>
       <c r="J147" s="2"/>
       <c r="K147" s="2"/>
       <c r="L147" s="2"/>
     </row>
-    <row r="148" spans="1:12" ht="17">
+    <row r="148" spans="1:12" ht="34">
       <c r="A148" t="s">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>254</v>
+        <v>314</v>
       </c>
       <c r="C148" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="D148" t="s">
         <v>15</v>
       </c>
       <c r="E148" t="s">
-        <v>162</v>
+        <v>137</v>
       </c>
       <c r="J148" s="2" t="s">
         <v>22</v>
@@ -4648,262 +4707,262 @@
         <v>500</v>
       </c>
       <c r="L148" s="2" t="s">
-        <v>65</v>
+        <v>40</v>
       </c>
     </row>
     <row r="149" spans="1:12" ht="34">
+      <c r="A149" t="s">
+        <v>39</v>
+      </c>
       <c r="B149" s="1" t="s">
-        <v>255</v>
+        <v>199</v>
+      </c>
+      <c r="C149" t="s">
+        <v>40</v>
       </c>
       <c r="D149" t="s">
         <v>15</v>
       </c>
       <c r="E149" t="s">
-        <v>162</v>
-      </c>
-      <c r="J149" s="2" t="s">
-        <v>17</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="J149" s="2"/>
       <c r="K149" s="2"/>
       <c r="L149" s="2"/>
     </row>
-    <row r="150" spans="1:12" ht="34">
+    <row r="150" spans="1:12" ht="17">
       <c r="A150" t="s">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>256</v>
+        <v>315</v>
       </c>
       <c r="C150" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="D150" t="s">
         <v>15</v>
       </c>
       <c r="E150" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="151" spans="1:12" ht="17">
-      <c r="A151" t="s">
-        <v>41</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="J150" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K150" s="2">
+        <v>500</v>
+      </c>
+      <c r="L150" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12" ht="34">
       <c r="B151" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="C151" t="s">
-        <v>63</v>
+        <v>316</v>
       </c>
       <c r="D151" t="s">
         <v>15</v>
       </c>
       <c r="E151" t="s">
-        <v>162</v>
+        <v>137</v>
       </c>
       <c r="J151" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K151" s="2">
-        <v>500</v>
-      </c>
-      <c r="L151" s="2" t="s">
-        <v>63</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="K151" s="2"/>
+      <c r="L151" s="2"/>
     </row>
     <row r="152" spans="1:12" ht="34">
       <c r="A152" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>258</v>
+        <v>317</v>
       </c>
       <c r="C152" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="D152" t="s">
         <v>15</v>
       </c>
       <c r="E152" t="s">
-        <v>162</v>
-      </c>
-      <c r="J152" s="2"/>
-      <c r="K152" s="2"/>
-      <c r="L152" s="2"/>
+        <v>137</v>
+      </c>
     </row>
     <row r="153" spans="1:12" ht="17">
       <c r="A153" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>259</v>
+        <v>200</v>
       </c>
       <c r="C153" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D153" t="s">
         <v>15</v>
       </c>
       <c r="E153" t="s">
-        <v>162</v>
-      </c>
-      <c r="J153" s="2"/>
-      <c r="K153" s="2"/>
-      <c r="L153" s="2"/>
+        <v>137</v>
+      </c>
+      <c r="J153" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K153" s="2">
+        <v>500</v>
+      </c>
+      <c r="L153" s="2" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="154" spans="1:12" ht="34">
       <c r="A154" t="s">
         <v>41</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>260</v>
+        <v>201</v>
       </c>
       <c r="C154" t="s">
-        <v>215</v>
+        <v>42</v>
       </c>
       <c r="D154" t="s">
         <v>15</v>
       </c>
       <c r="E154" t="s">
-        <v>162</v>
+        <v>137</v>
       </c>
       <c r="J154" s="2"/>
       <c r="K154" s="2"/>
       <c r="L154" s="2"/>
     </row>
-    <row r="155" spans="1:12" ht="34">
+    <row r="155" spans="1:12" ht="17">
+      <c r="A155" t="s">
+        <v>64</v>
+      </c>
       <c r="B155" s="1" t="s">
-        <v>261</v>
+        <v>202</v>
+      </c>
+      <c r="C155" t="s">
+        <v>66</v>
       </c>
       <c r="D155" t="s">
         <v>15</v>
       </c>
       <c r="E155" t="s">
-        <v>162</v>
-      </c>
-      <c r="J155" s="2" t="s">
-        <v>17</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="J155" s="2"/>
       <c r="K155" s="2"/>
       <c r="L155" s="2"/>
     </row>
-    <row r="156" spans="1:12" ht="51">
+    <row r="156" spans="1:12" ht="34">
+      <c r="A156" t="s">
+        <v>41</v>
+      </c>
       <c r="B156" s="1" t="s">
-        <v>262</v>
+        <v>268</v>
+      </c>
+      <c r="C156" t="s">
+        <v>179</v>
       </c>
       <c r="D156" t="s">
         <v>15</v>
       </c>
       <c r="E156" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="157" spans="1:12" ht="17">
+        <v>137</v>
+      </c>
+      <c r="J156" s="2"/>
+      <c r="K156" s="2"/>
+      <c r="L156" s="2"/>
+    </row>
+    <row r="157" spans="1:12" ht="34">
       <c r="B157" s="1" t="s">
-        <v>263</v>
+        <v>318</v>
       </c>
       <c r="D157" t="s">
         <v>15</v>
       </c>
       <c r="E157" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="158" spans="1:12" ht="17">
-      <c r="A158" t="s">
+        <v>137</v>
+      </c>
+      <c r="J157" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K157" s="2"/>
+      <c r="L157" s="2"/>
+    </row>
+    <row r="158" spans="1:12" ht="51">
+      <c r="B158" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="D158" t="s">
+        <v>15</v>
+      </c>
+      <c r="E158" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="159" spans="1:12" ht="17">
+      <c r="B159" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="D159" t="s">
+        <v>15</v>
+      </c>
+      <c r="E159" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12" ht="17">
+      <c r="A160" t="s">
         <v>45</v>
       </c>
-      <c r="B158" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="C158" t="s">
-        <v>218</v>
-      </c>
-      <c r="D158" t="s">
-        <v>15</v>
-      </c>
-      <c r="E158" t="s">
-        <v>162</v>
-      </c>
-      <c r="G158" s="3" t="s">
+      <c r="B160" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C160" t="s">
+        <v>182</v>
+      </c>
+      <c r="D160" t="s">
+        <v>15</v>
+      </c>
+      <c r="E160" t="s">
+        <v>137</v>
+      </c>
+      <c r="G160" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H158" s="3">
+      <c r="H160" s="3">
         <v>0</v>
       </c>
-      <c r="I158" s="3" t="s">
+      <c r="I160" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="J158" s="2" t="s">
+      <c r="J160" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="K158" s="2">
+      <c r="K160" s="2">
         <v>0</v>
       </c>
-      <c r="L158" s="2" t="s">
+      <c r="L160" s="2" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="159" spans="1:12" ht="34">
-      <c r="A159" t="s">
-        <v>1</v>
-      </c>
-      <c r="B159" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="C159" t="s">
-        <v>33</v>
-      </c>
-      <c r="D159" t="s">
-        <v>15</v>
-      </c>
-      <c r="E159" t="s">
-        <v>162</v>
-      </c>
-      <c r="G159" s="3"/>
-      <c r="H159" s="3"/>
-      <c r="I159" s="3"/>
-      <c r="J159" s="2"/>
-      <c r="K159" s="2"/>
-      <c r="L159" s="2"/>
-    </row>
-    <row r="160" spans="1:12" ht="34">
-      <c r="A160" t="s">
-        <v>1</v>
-      </c>
-      <c r="B160" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="C160" t="s">
-        <v>44</v>
-      </c>
-      <c r="D160" t="s">
-        <v>15</v>
-      </c>
-      <c r="E160" t="s">
-        <v>162</v>
-      </c>
-      <c r="G160" s="3"/>
-      <c r="H160" s="3"/>
-      <c r="I160" s="3"/>
-      <c r="J160" s="2"/>
-      <c r="K160" s="2"/>
-      <c r="L160" s="2"/>
     </row>
     <row r="161" spans="1:12" ht="34">
       <c r="A161" t="s">
         <v>1</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>267</v>
+        <v>204</v>
       </c>
       <c r="C161" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="D161" t="s">
         <v>15</v>
       </c>
       <c r="E161" t="s">
-        <v>162</v>
+        <v>137</v>
       </c>
       <c r="G161" s="3"/>
       <c r="H161" s="3"/>
@@ -4912,50 +4971,44 @@
       <c r="K161" s="2"/>
       <c r="L161" s="2"/>
     </row>
-    <row r="162" spans="1:12" ht="17">
+    <row r="162" spans="1:12" ht="34">
       <c r="A162" t="s">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>268</v>
+        <v>205</v>
       </c>
       <c r="C162" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="D162" t="s">
         <v>15</v>
       </c>
       <c r="E162" t="s">
-        <v>162</v>
+        <v>137</v>
       </c>
       <c r="G162" s="3"/>
       <c r="H162" s="3"/>
       <c r="I162" s="3"/>
-      <c r="J162" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K162" s="2">
-        <v>0</v>
-      </c>
-      <c r="L162" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="163" spans="1:12" ht="17">
+      <c r="J162" s="2"/>
+      <c r="K162" s="2"/>
+      <c r="L162" s="2"/>
+    </row>
+    <row r="163" spans="1:12" ht="34">
       <c r="A163" t="s">
         <v>1</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>269</v>
+        <v>206</v>
       </c>
       <c r="C163" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="D163" t="s">
         <v>15</v>
       </c>
       <c r="E163" t="s">
-        <v>162</v>
+        <v>137</v>
       </c>
       <c r="G163" s="3"/>
       <c r="H163" s="3"/>
@@ -4966,33 +5019,39 @@
     </row>
     <row r="164" spans="1:12" ht="17">
       <c r="A164" t="s">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>270</v>
+        <v>207</v>
       </c>
       <c r="C164" t="s">
-        <v>271</v>
+        <v>51</v>
       </c>
       <c r="D164" t="s">
         <v>15</v>
       </c>
       <c r="E164" t="s">
-        <v>162</v>
+        <v>137</v>
       </c>
       <c r="G164" s="3"/>
       <c r="H164" s="3"/>
       <c r="I164" s="3"/>
-      <c r="J164" s="2"/>
-      <c r="K164" s="2"/>
-      <c r="L164" s="2"/>
+      <c r="J164" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K164" s="2">
+        <v>0</v>
+      </c>
+      <c r="L164" s="2" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="165" spans="1:12" ht="17">
       <c r="A165" t="s">
         <v>1</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>272</v>
+        <v>208</v>
       </c>
       <c r="C165" t="s">
         <v>29</v>
@@ -5001,7 +5060,7 @@
         <v>15</v>
       </c>
       <c r="E165" t="s">
-        <v>162</v>
+        <v>137</v>
       </c>
       <c r="G165" s="3"/>
       <c r="H165" s="3"/>
@@ -5012,74 +5071,65 @@
     </row>
     <row r="166" spans="1:12" ht="17">
       <c r="A166" t="s">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>273</v>
+        <v>209</v>
       </c>
       <c r="C166" t="s">
-        <v>57</v>
+        <v>210</v>
       </c>
       <c r="D166" t="s">
         <v>15</v>
       </c>
       <c r="E166" t="s">
-        <v>162</v>
+        <v>137</v>
       </c>
       <c r="G166" s="3"/>
       <c r="H166" s="3"/>
       <c r="I166" s="3"/>
-      <c r="J166" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K166" s="2">
-        <v>0</v>
-      </c>
-      <c r="L166" s="2" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="167" spans="1:12" ht="34">
+      <c r="J166" s="2"/>
+      <c r="K166" s="2"/>
+      <c r="L166" s="2"/>
+    </row>
+    <row r="167" spans="1:12" ht="17">
       <c r="A167" t="s">
-        <v>39</v>
+        <v>1</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>275</v>
+        <v>211</v>
       </c>
       <c r="C167" t="s">
-        <v>174</v>
+        <v>29</v>
       </c>
       <c r="D167" t="s">
         <v>15</v>
       </c>
       <c r="E167" t="s">
-        <v>162</v>
+        <v>137</v>
       </c>
       <c r="G167" s="3"/>
       <c r="H167" s="3"/>
       <c r="I167" s="3"/>
-      <c r="J167" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K167" s="2">
-        <v>0</v>
-      </c>
-      <c r="L167" s="2" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="168" spans="1:12" ht="34">
+      <c r="J167" s="2"/>
+      <c r="K167" s="2"/>
+      <c r="L167" s="2"/>
+    </row>
+    <row r="168" spans="1:12" ht="17">
       <c r="A168" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>276</v>
+        <v>212</v>
+      </c>
+      <c r="C168" t="s">
+        <v>57</v>
       </c>
       <c r="D168" t="s">
         <v>15</v>
       </c>
       <c r="E168" t="s">
-        <v>162</v>
+        <v>137</v>
       </c>
       <c r="G168" s="3"/>
       <c r="H168" s="3"/>
@@ -5091,24 +5141,24 @@
         <v>0</v>
       </c>
       <c r="L168" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="169" spans="1:12" ht="34">
       <c r="A169" t="s">
-        <v>166</v>
+        <v>39</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>277</v>
+        <v>214</v>
       </c>
       <c r="C169" t="s">
-        <v>278</v>
+        <v>146</v>
       </c>
       <c r="D169" t="s">
         <v>15</v>
       </c>
       <c r="E169" t="s">
-        <v>162</v>
+        <v>137</v>
       </c>
       <c r="G169" s="3"/>
       <c r="H169" s="3"/>
@@ -5120,93 +5170,102 @@
         <v>0</v>
       </c>
       <c r="L169" s="2" t="s">
-        <v>169</v>
+        <v>147</v>
       </c>
     </row>
     <row r="170" spans="1:12" ht="34">
+      <c r="A170" t="s">
+        <v>41</v>
+      </c>
       <c r="B170" s="1" t="s">
-        <v>279</v>
+        <v>215</v>
       </c>
       <c r="D170" t="s">
         <v>15</v>
       </c>
       <c r="E170" t="s">
-        <v>162</v>
-      </c>
-      <c r="G170" s="3" t="s">
-        <v>17</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="G170" s="3"/>
       <c r="H170" s="3"/>
       <c r="I170" s="3"/>
       <c r="J170" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K170" s="2">
+        <v>0</v>
+      </c>
+      <c r="L170" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="171" spans="1:12" ht="34">
+      <c r="A171" t="s">
+        <v>140</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C171" t="s">
+        <v>217</v>
+      </c>
+      <c r="D171" t="s">
+        <v>15</v>
+      </c>
+      <c r="E171" t="s">
+        <v>137</v>
+      </c>
+      <c r="G171" s="3"/>
+      <c r="H171" s="3"/>
+      <c r="I171" s="3"/>
+      <c r="J171" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K171" s="2">
+        <v>0</v>
+      </c>
+      <c r="L171" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="172" spans="1:12" ht="34">
+      <c r="B172" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D172" t="s">
+        <v>15</v>
+      </c>
+      <c r="E172" t="s">
+        <v>137</v>
+      </c>
+      <c r="G172" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K170" s="2"/>
-      <c r="L170" s="2"/>
-    </row>
-    <row r="171" spans="1:12" ht="51">
-      <c r="B171" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="D171" t="s">
-        <v>15</v>
-      </c>
-      <c r="E171" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="172" spans="1:12" ht="51">
-      <c r="A172" t="s">
-        <v>1</v>
-      </c>
-      <c r="B172" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="C172" t="s">
-        <v>29</v>
-      </c>
-      <c r="D172" t="s">
-        <v>15</v>
-      </c>
-      <c r="E172" t="s">
-        <v>162</v>
-      </c>
-      <c r="G172" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H172" s="3">
-        <v>-500</v>
-      </c>
-      <c r="I172" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="173" spans="1:12" ht="34">
-      <c r="A173" t="s">
-        <v>1</v>
-      </c>
+      <c r="H172" s="3"/>
+      <c r="I172" s="3"/>
+      <c r="J172" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K172" s="2"/>
+      <c r="L172" s="2"/>
+    </row>
+    <row r="173" spans="1:12" ht="51">
       <c r="B173" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="C173" t="s">
-        <v>44</v>
+        <v>219</v>
       </c>
       <c r="D173" t="s">
         <v>15</v>
       </c>
       <c r="E173" t="s">
-        <v>162</v>
-      </c>
-      <c r="G173" s="3"/>
-      <c r="H173" s="3"/>
-      <c r="I173" s="3"/>
-    </row>
-    <row r="174" spans="1:12" ht="34">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="174" spans="1:12" ht="51">
       <c r="A174" t="s">
         <v>1</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>283</v>
+        <v>321</v>
       </c>
       <c r="C174" t="s">
         <v>29</v>
@@ -5215,27 +5274,33 @@
         <v>15</v>
       </c>
       <c r="E174" t="s">
-        <v>162</v>
-      </c>
-      <c r="G174" s="3"/>
-      <c r="H174" s="3"/>
-      <c r="I174" s="3"/>
+        <v>137</v>
+      </c>
+      <c r="G174" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H174" s="3">
+        <v>-500</v>
+      </c>
+      <c r="I174" s="3" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="175" spans="1:12" ht="34">
       <c r="A175" t="s">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>284</v>
+        <v>220</v>
       </c>
       <c r="C175" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="D175" t="s">
         <v>15</v>
       </c>
       <c r="E175" t="s">
-        <v>162</v>
+        <v>137</v>
       </c>
       <c r="G175" s="3"/>
       <c r="H175" s="3"/>
@@ -5243,39 +5308,39 @@
     </row>
     <row r="176" spans="1:12" ht="34">
       <c r="A176" t="s">
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>285</v>
+        <v>221</v>
       </c>
       <c r="C176" t="s">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="D176" t="s">
         <v>15</v>
       </c>
       <c r="E176" t="s">
-        <v>162</v>
+        <v>137</v>
       </c>
       <c r="G176" s="3"/>
       <c r="H176" s="3"/>
       <c r="I176" s="3"/>
     </row>
-    <row r="177" spans="1:12" ht="34">
+    <row r="177" spans="1:12" ht="17">
       <c r="A177" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>286</v>
+        <v>322</v>
       </c>
       <c r="C177" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D177" t="s">
         <v>15</v>
       </c>
       <c r="E177" t="s">
-        <v>162</v>
+        <v>137</v>
       </c>
       <c r="G177" s="3"/>
       <c r="H177" s="3"/>
@@ -5283,120 +5348,114 @@
     </row>
     <row r="178" spans="1:12" ht="34">
       <c r="A178" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>287</v>
+        <v>222</v>
       </c>
       <c r="C178" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="D178" t="s">
         <v>15</v>
       </c>
       <c r="E178" t="s">
-        <v>162</v>
+        <v>137</v>
       </c>
       <c r="G178" s="3"/>
       <c r="H178" s="3"/>
       <c r="I178" s="3"/>
     </row>
-    <row r="179" spans="1:12" ht="17">
+    <row r="179" spans="1:12" ht="34">
       <c r="A179" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>288</v>
+        <v>323</v>
       </c>
       <c r="C179" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="D179" t="s">
         <v>15</v>
       </c>
       <c r="E179" t="s">
-        <v>162</v>
-      </c>
-      <c r="G179" s="3" t="s">
-        <v>17</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="G179" s="3"/>
       <c r="H179" s="3"/>
       <c r="I179" s="3"/>
     </row>
     <row r="180" spans="1:12" ht="34">
+      <c r="A180" t="s">
+        <v>39</v>
+      </c>
       <c r="B180" s="1" t="s">
-        <v>289</v>
+        <v>324</v>
+      </c>
+      <c r="C180" t="s">
+        <v>40</v>
       </c>
       <c r="D180" t="s">
         <v>15</v>
       </c>
       <c r="E180" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="181" spans="1:12" ht="51">
+        <v>137</v>
+      </c>
+      <c r="G180" s="3"/>
+      <c r="H180" s="3"/>
+      <c r="I180" s="3"/>
+    </row>
+    <row r="181" spans="1:12" ht="17">
+      <c r="A181" t="s">
+        <v>45</v>
+      </c>
       <c r="B181" s="1" t="s">
-        <v>290</v>
+        <v>223</v>
+      </c>
+      <c r="C181" t="s">
+        <v>46</v>
       </c>
       <c r="D181" t="s">
         <v>15</v>
       </c>
       <c r="E181" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="182" spans="1:12" ht="51">
-      <c r="A182" t="s">
-        <v>35</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="G181" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H181" s="3"/>
+      <c r="I181" s="3"/>
+    </row>
+    <row r="182" spans="1:12" ht="34">
       <c r="B182" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="C182" t="s">
-        <v>58</v>
+        <v>325</v>
       </c>
       <c r="D182" t="s">
         <v>15</v>
       </c>
       <c r="E182" t="s">
-        <v>162</v>
-      </c>
-      <c r="J182" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K182" s="2">
-        <v>500</v>
-      </c>
-      <c r="L182" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="183" spans="1:12" ht="17">
-      <c r="A183" t="s">
-        <v>35</v>
-      </c>
+        <v>137</v>
+      </c>
+    </row>
+    <row r="183" spans="1:12" ht="51">
       <c r="B183" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="C183" t="s">
-        <v>109</v>
+        <v>224</v>
       </c>
       <c r="D183" t="s">
         <v>15</v>
       </c>
       <c r="E183" t="s">
-        <v>162</v>
-      </c>
-      <c r="J183" s="2"/>
-      <c r="K183" s="2"/>
-      <c r="L183" s="2"/>
-    </row>
-    <row r="184" spans="1:12" ht="34">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="184" spans="1:12" ht="51">
       <c r="A184" t="s">
         <v>35</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>293</v>
+        <v>326</v>
       </c>
       <c r="C184" t="s">
         <v>58</v>
@@ -5405,120 +5464,126 @@
         <v>15</v>
       </c>
       <c r="E184" t="s">
-        <v>162</v>
+        <v>137</v>
       </c>
       <c r="J184" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K184" s="2"/>
-      <c r="L184" s="2"/>
-    </row>
-    <row r="185" spans="1:12" ht="34">
+        <v>22</v>
+      </c>
+      <c r="K184" s="2">
+        <v>500</v>
+      </c>
+      <c r="L184" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="185" spans="1:12" ht="17">
+      <c r="A185" t="s">
+        <v>35</v>
+      </c>
       <c r="B185" s="1" t="s">
-        <v>294</v>
+        <v>225</v>
+      </c>
+      <c r="C185" t="s">
+        <v>99</v>
       </c>
       <c r="D185" t="s">
         <v>15</v>
       </c>
       <c r="E185" t="s">
-        <v>162</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="J185" s="2"/>
+      <c r="K185" s="2"/>
+      <c r="L185" s="2"/>
     </row>
     <row r="186" spans="1:12" ht="34">
       <c r="A186" t="s">
+        <v>35</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C186" t="s">
+        <v>58</v>
+      </c>
+      <c r="D186" t="s">
+        <v>15</v>
+      </c>
+      <c r="E186" t="s">
+        <v>137</v>
+      </c>
+      <c r="J186" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K186" s="2"/>
+      <c r="L186" s="2"/>
+    </row>
+    <row r="187" spans="1:12" ht="34">
+      <c r="B187" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D187" t="s">
+        <v>15</v>
+      </c>
+      <c r="E187" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="188" spans="1:12" ht="34">
+      <c r="A188" t="s">
         <v>24</v>
       </c>
-      <c r="B186" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="C186" t="s">
-        <v>138</v>
-      </c>
-      <c r="D186" t="s">
-        <v>15</v>
-      </c>
-      <c r="E186" t="s">
-        <v>162</v>
-      </c>
-      <c r="J186" s="2" t="s">
+      <c r="B188" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C188" t="s">
+        <v>122</v>
+      </c>
+      <c r="D188" t="s">
+        <v>15</v>
+      </c>
+      <c r="E188" t="s">
+        <v>137</v>
+      </c>
+      <c r="J188" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="K186" s="2">
+      <c r="K188" s="2">
         <v>500</v>
       </c>
-      <c r="L186" s="2" t="s">
+      <c r="L188" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="187" spans="1:12" ht="17">
-      <c r="A187" t="s">
-        <v>53</v>
-      </c>
-      <c r="B187" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="C187" t="s">
-        <v>297</v>
-      </c>
-      <c r="D187" t="s">
-        <v>15</v>
-      </c>
-      <c r="E187" t="s">
-        <v>162</v>
-      </c>
-      <c r="J187" s="2"/>
-      <c r="K187" s="2"/>
-      <c r="L187" s="2"/>
-    </row>
-    <row r="188" spans="1:12" ht="51">
-      <c r="B188" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="D188" t="s">
-        <v>15</v>
-      </c>
-      <c r="E188" t="s">
-        <v>162</v>
-      </c>
-      <c r="J188" s="2"/>
-      <c r="K188" s="2"/>
-      <c r="L188" s="2"/>
     </row>
     <row r="189" spans="1:12" ht="17">
       <c r="A189" t="s">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>299</v>
+        <v>229</v>
       </c>
       <c r="C189" t="s">
-        <v>28</v>
+        <v>230</v>
       </c>
       <c r="D189" t="s">
         <v>15</v>
       </c>
       <c r="E189" t="s">
-        <v>162</v>
-      </c>
-      <c r="J189" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K189" s="2">
-        <v>500</v>
-      </c>
-      <c r="L189" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="190" spans="1:12" ht="34">
+        <v>137</v>
+      </c>
+      <c r="J189" s="2"/>
+      <c r="K189" s="2"/>
+      <c r="L189" s="2"/>
+    </row>
+    <row r="190" spans="1:12" ht="51">
       <c r="B190" s="1" t="s">
-        <v>300</v>
+        <v>231</v>
       </c>
       <c r="D190" t="s">
         <v>15</v>
       </c>
       <c r="E190" t="s">
-        <v>162</v>
+        <v>137</v>
       </c>
       <c r="J190" s="2"/>
       <c r="K190" s="2"/>
@@ -5529,7 +5594,7 @@
         <v>24</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>301</v>
+        <v>232</v>
       </c>
       <c r="C191" t="s">
         <v>28</v>
@@ -5538,27 +5603,27 @@
         <v>15</v>
       </c>
       <c r="E191" t="s">
-        <v>162</v>
-      </c>
-      <c r="J191" s="2"/>
-      <c r="K191" s="2"/>
-      <c r="L191" s="2"/>
+        <v>137</v>
+      </c>
+      <c r="J191" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K191" s="2">
+        <v>500</v>
+      </c>
+      <c r="L191" s="2" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="192" spans="1:12" ht="34">
-      <c r="A192" t="s">
-        <v>24</v>
-      </c>
       <c r="B192" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="C192" t="s">
-        <v>28</v>
+        <v>233</v>
       </c>
       <c r="D192" t="s">
         <v>15</v>
       </c>
       <c r="E192" t="s">
-        <v>162</v>
+        <v>137</v>
       </c>
       <c r="J192" s="2"/>
       <c r="K192" s="2"/>
@@ -5569,69 +5634,69 @@
         <v>24</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>303</v>
+        <v>269</v>
       </c>
       <c r="C193" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D193" t="s">
         <v>15</v>
       </c>
       <c r="E193" t="s">
-        <v>162</v>
-      </c>
-      <c r="J193" s="2" t="s">
-        <v>17</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="J193" s="2"/>
       <c r="K193" s="2"/>
       <c r="L193" s="2"/>
     </row>
-    <row r="194" spans="1:12" ht="51">
+    <row r="194" spans="1:12" ht="34">
       <c r="A194" t="s">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>304</v>
+        <v>234</v>
       </c>
       <c r="C194" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="D194" t="s">
         <v>15</v>
       </c>
       <c r="E194" t="s">
-        <v>162</v>
-      </c>
-      <c r="G194" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H194" s="3">
-        <v>-500</v>
-      </c>
-      <c r="I194" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="195" spans="1:12" ht="68">
+        <v>137</v>
+      </c>
+      <c r="J194" s="2"/>
+      <c r="K194" s="2"/>
+      <c r="L194" s="2"/>
+    </row>
+    <row r="195" spans="1:12" ht="17">
+      <c r="A195" t="s">
+        <v>24</v>
+      </c>
       <c r="B195" s="1" t="s">
-        <v>305</v>
+        <v>235</v>
+      </c>
+      <c r="C195" t="s">
+        <v>26</v>
       </c>
       <c r="D195" t="s">
         <v>15</v>
       </c>
       <c r="E195" t="s">
-        <v>162</v>
-      </c>
-      <c r="G195" s="3"/>
-      <c r="H195" s="3"/>
-      <c r="I195" s="3"/>
-    </row>
-    <row r="196" spans="1:12" ht="34">
+        <v>137</v>
+      </c>
+      <c r="J195" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K195" s="2"/>
+      <c r="L195" s="2"/>
+    </row>
+    <row r="196" spans="1:12" ht="51">
       <c r="A196" t="s">
         <v>1</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>306</v>
+        <v>236</v>
       </c>
       <c r="C196" t="s">
         <v>44</v>
@@ -5640,189 +5705,219 @@
         <v>15</v>
       </c>
       <c r="E196" t="s">
-        <v>162</v>
-      </c>
-      <c r="G196" s="3"/>
-      <c r="H196" s="3"/>
-      <c r="I196" s="3"/>
-    </row>
-    <row r="197" spans="1:12" ht="17">
-      <c r="A197" t="s">
-        <v>1</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="G196" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H196" s="3">
+        <v>-500</v>
+      </c>
+      <c r="I196" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="197" spans="1:12" ht="51">
       <c r="B197" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="C197" t="s">
-        <v>44</v>
+        <v>270</v>
       </c>
       <c r="D197" t="s">
         <v>15</v>
       </c>
       <c r="E197" t="s">
-        <v>162</v>
+        <v>137</v>
       </c>
       <c r="G197" s="3"/>
       <c r="H197" s="3"/>
       <c r="I197" s="3"/>
     </row>
-    <row r="198" spans="1:12" ht="51">
+    <row r="198" spans="1:12" ht="34">
+      <c r="A198" t="s">
+        <v>1</v>
+      </c>
       <c r="B198" s="1" t="s">
-        <v>308</v>
+        <v>237</v>
+      </c>
+      <c r="C198" t="s">
+        <v>44</v>
       </c>
       <c r="D198" t="s">
         <v>15</v>
       </c>
       <c r="E198" t="s">
-        <v>162</v>
-      </c>
-      <c r="G198" s="3" t="s">
-        <v>17</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="G198" s="3"/>
       <c r="H198" s="3"/>
       <c r="I198" s="3"/>
     </row>
-    <row r="199" spans="1:12" ht="34">
+    <row r="199" spans="1:12" ht="17">
+      <c r="A199" t="s">
+        <v>1</v>
+      </c>
       <c r="B199" s="1" t="s">
-        <v>309</v>
+        <v>238</v>
+      </c>
+      <c r="C199" t="s">
+        <v>44</v>
       </c>
       <c r="D199" t="s">
         <v>15</v>
       </c>
       <c r="E199" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="200" spans="1:12" ht="17">
+        <v>137</v>
+      </c>
+      <c r="G199" s="3"/>
+      <c r="H199" s="3"/>
+      <c r="I199" s="3"/>
+    </row>
+    <row r="200" spans="1:12" ht="51">
       <c r="B200" s="1" t="s">
-        <v>310</v>
+        <v>239</v>
       </c>
       <c r="D200" t="s">
         <v>15</v>
       </c>
       <c r="E200" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="201" spans="1:12" ht="17">
+        <v>137</v>
+      </c>
+      <c r="G200" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H200" s="3"/>
+      <c r="I200" s="3"/>
+    </row>
+    <row r="201" spans="1:12" ht="34">
       <c r="B201" s="1" t="s">
-        <v>311</v>
+        <v>240</v>
       </c>
       <c r="D201" t="s">
         <v>15</v>
       </c>
       <c r="E201" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="202" spans="1:12" ht="34">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="202" spans="1:12" ht="17">
       <c r="B202" s="1" t="s">
-        <v>312</v>
+        <v>241</v>
       </c>
       <c r="D202" t="s">
         <v>15</v>
       </c>
       <c r="E202" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="203" spans="1:12" ht="34">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="203" spans="1:12" ht="17">
       <c r="B203" s="1" t="s">
-        <v>313</v>
+        <v>242</v>
       </c>
       <c r="D203" t="s">
         <v>15</v>
       </c>
       <c r="E203" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="204" spans="1:12" ht="51">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="204" spans="1:12" ht="34">
       <c r="B204" s="1" t="s">
-        <v>314</v>
+        <v>243</v>
       </c>
       <c r="D204" t="s">
         <v>15</v>
       </c>
       <c r="E204" t="s">
-        <v>162</v>
+        <v>137</v>
       </c>
     </row>
     <row r="205" spans="1:12" ht="34">
       <c r="B205" s="1" t="s">
-        <v>315</v>
+        <v>244</v>
       </c>
       <c r="D205" t="s">
         <v>15</v>
       </c>
       <c r="E205" t="s">
-        <v>162</v>
-      </c>
-      <c r="G205" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="206" spans="1:12" ht="51">
+      <c r="B206" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="D206" t="s">
+        <v>15</v>
+      </c>
+      <c r="E206" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="207" spans="1:12" ht="34">
+      <c r="B207" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="D207" t="s">
+        <v>15</v>
+      </c>
+      <c r="E207" t="s">
+        <v>137</v>
+      </c>
+      <c r="G207" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H205" s="3">
+      <c r="H207" s="3">
         <v>0</v>
       </c>
-      <c r="I205" s="3" t="s">
+      <c r="I207" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="J205" s="2" t="s">
+      <c r="J207" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="K205" s="2">
+      <c r="K207" s="2">
         <v>0</v>
       </c>
-      <c r="L205" s="2" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="206" spans="1:12" ht="17">
-      <c r="A206" t="s">
-        <v>317</v>
-      </c>
-      <c r="B206" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="C206" t="s">
-        <v>320</v>
-      </c>
-      <c r="E206" t="s">
-        <v>162</v>
-      </c>
-      <c r="G206" s="3"/>
-      <c r="H206" s="3"/>
-      <c r="I206" s="3"/>
-      <c r="J206" s="2"/>
-      <c r="K206" s="2"/>
-      <c r="L206" s="2"/>
-    </row>
-    <row r="207" spans="1:12" ht="17">
-      <c r="B207" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="C207" t="s">
-        <v>321</v>
-      </c>
-      <c r="E207" t="s">
-        <v>162</v>
-      </c>
-      <c r="G207" s="3"/>
-      <c r="H207" s="3"/>
-      <c r="I207" s="3"/>
-      <c r="J207" s="2"/>
-      <c r="K207" s="2"/>
-      <c r="L207" s="2"/>
-    </row>
-    <row r="322" spans="7:12">
-      <c r="G322" s="3"/>
-      <c r="H322" s="3"/>
-      <c r="I322" s="3"/>
-    </row>
-    <row r="323" spans="7:12">
-      <c r="G323" s="3"/>
-      <c r="H323" s="3"/>
-      <c r="I323" s="3"/>
+      <c r="L207" s="2" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="208" spans="1:12" ht="17">
+      <c r="A208" t="s">
+        <v>247</v>
+      </c>
+      <c r="B208" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="C208" t="s">
+        <v>249</v>
+      </c>
+      <c r="E208" t="s">
+        <v>137</v>
+      </c>
+      <c r="G208" s="3"/>
+      <c r="H208" s="3"/>
+      <c r="I208" s="3"/>
+      <c r="J208" s="2"/>
+      <c r="K208" s="2"/>
+      <c r="L208" s="2"/>
+    </row>
+    <row r="209" spans="2:12" ht="17">
+      <c r="B209" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="C209" t="s">
+        <v>250</v>
+      </c>
+      <c r="E209" t="s">
+        <v>137</v>
+      </c>
+      <c r="G209" s="3"/>
+      <c r="H209" s="3"/>
+      <c r="I209" s="3"/>
+      <c r="J209" s="2"/>
+      <c r="K209" s="2"/>
+      <c r="L209" s="2"/>
     </row>
     <row r="324" spans="7:12">
       <c r="G324" s="3"/>
@@ -5834,31 +5929,31 @@
       <c r="H325" s="3"/>
       <c r="I325" s="3"/>
     </row>
-    <row r="328" spans="7:12">
-      <c r="J328" s="2"/>
-      <c r="K328" s="2"/>
-      <c r="L328" s="2"/>
-    </row>
-    <row r="329" spans="7:12">
-      <c r="J329" s="2"/>
-      <c r="K329" s="2"/>
-      <c r="L329" s="2"/>
+    <row r="326" spans="7:12">
+      <c r="G326" s="3"/>
+      <c r="H326" s="3"/>
+      <c r="I326" s="3"/>
+    </row>
+    <row r="327" spans="7:12">
+      <c r="G327" s="3"/>
+      <c r="H327" s="3"/>
+      <c r="I327" s="3"/>
     </row>
     <row r="330" spans="7:12">
       <c r="J330" s="2"/>
       <c r="K330" s="2"/>
       <c r="L330" s="2"/>
     </row>
+    <row r="331" spans="7:12">
+      <c r="J331" s="2"/>
+      <c r="K331" s="2"/>
+      <c r="L331" s="2"/>
+    </row>
     <row r="332" spans="7:12">
       <c r="J332" s="2"/>
       <c r="K332" s="2"/>
       <c r="L332" s="2"/>
     </row>
-    <row r="333" spans="7:12">
-      <c r="J333" s="2"/>
-      <c r="K333" s="2"/>
-      <c r="L333" s="2"/>
-    </row>
     <row r="334" spans="7:12">
       <c r="J334" s="2"/>
       <c r="K334" s="2"/>
@@ -5890,14 +5985,14 @@
       <c r="L339" s="2"/>
     </row>
     <row r="340" spans="7:12">
-      <c r="G340" s="3"/>
-      <c r="H340" s="3"/>
-      <c r="I340" s="3"/>
+      <c r="J340" s="2"/>
+      <c r="K340" s="2"/>
+      <c r="L340" s="2"/>
     </row>
     <row r="341" spans="7:12">
-      <c r="G341" s="3"/>
-      <c r="H341" s="3"/>
-      <c r="I341" s="3"/>
+      <c r="J341" s="2"/>
+      <c r="K341" s="2"/>
+      <c r="L341" s="2"/>
     </row>
     <row r="342" spans="7:12">
       <c r="G342" s="3"/>
@@ -5913,6 +6008,16 @@
       <c r="G344" s="3"/>
       <c r="H344" s="3"/>
       <c r="I344" s="3"/>
+    </row>
+    <row r="345" spans="7:12">
+      <c r="G345" s="3"/>
+      <c r="H345" s="3"/>
+      <c r="I345" s="3"/>
+    </row>
+    <row r="346" spans="7:12">
+      <c r="G346" s="3"/>
+      <c r="H346" s="3"/>
+      <c r="I346" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Assets/StreamingAssets/StoryScript5.xlsx
+++ b/Assets/StreamingAssets/StoryScript5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/renqi/TextAdvancedGame/Assets/StreamingAssets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC679904-81A0-7847-8F6F-0B4ACC916911}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8A19409-4E70-334E-A273-26A52301154C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28100" windowHeight="15820" xr2:uid="{68C9ECD6-F2C7-A34A-8665-FFA8663C762C}"/>
   </bookViews>
@@ -1272,10 +1272,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>The food in storage......millet, wheat and rice should be just enough to last seven days.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">You all heard it. Let’s stay in the manor and wait patiently for seven days. </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1374,6 +1370,9 @@
   <si>
     <t>History10</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The food in storage......&lt;color=#FFCC000&gt;millet, wheat and rice&lt;/color&gt; should be just enough to last seven days.</t>
   </si>
 </sst>
 </file>
@@ -1796,8 +1795,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7EEC272-F350-D34D-A243-3179172F76FB}">
   <dimension ref="A1:P346"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E111" workbookViewId="0">
-      <selection activeCell="L124" sqref="L124"/>
+    <sheetView tabSelected="1" topLeftCell="A111" workbookViewId="0">
+      <selection activeCell="B119" sqref="B119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4080,12 +4079,12 @@
       <c r="K118" s="2"/>
       <c r="L118" s="2"/>
     </row>
-    <row r="119" spans="1:14" ht="34">
+    <row r="119" spans="1:14" ht="51">
       <c r="A119" t="s">
         <v>62</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>304</v>
+        <v>329</v>
       </c>
       <c r="C119" t="s">
         <v>183</v>
@@ -4100,7 +4099,7 @@
       <c r="K119" s="2"/>
       <c r="L119" s="2"/>
       <c r="M119" s="4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="N119" s="4" t="s">
         <v>22</v>
@@ -4127,7 +4126,7 @@
         <v>35</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C121" t="s">
         <v>68</v>
@@ -4149,7 +4148,7 @@
         <v>35</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C122" t="s">
         <v>68</v>
@@ -4219,7 +4218,7 @@
         <v>1</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C127" t="s">
         <v>44</v>
@@ -4245,7 +4244,7 @@
         <v>1</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C128" t="s">
         <v>33</v>
@@ -4285,7 +4284,7 @@
         <v>1</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C130" t="s">
         <v>14</v>
@@ -4371,7 +4370,7 @@
         <v>1</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C134" t="s">
         <v>14</v>
@@ -4411,7 +4410,7 @@
         <v>1</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C136" t="s">
         <v>14</v>
@@ -4453,7 +4452,7 @@
         <v>50</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C138" t="s">
         <v>190</v>
@@ -4505,7 +4504,7 @@
         <v>35</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C140" t="s">
         <v>69</v>
@@ -4689,7 +4688,7 @@
         <v>39</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C148" t="s">
         <v>40</v>
@@ -4735,7 +4734,7 @@
         <v>64</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C150" t="s">
         <v>66</v>
@@ -4758,7 +4757,7 @@
     </row>
     <row r="151" spans="1:12" ht="34">
       <c r="B151" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D151" t="s">
         <v>15</v>
@@ -4777,7 +4776,7 @@
         <v>35</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C152" t="s">
         <v>59</v>
@@ -4877,7 +4876,7 @@
     </row>
     <row r="157" spans="1:12" ht="34">
       <c r="B157" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D157" t="s">
         <v>15</v>
@@ -4893,7 +4892,7 @@
     </row>
     <row r="158" spans="1:12" ht="51">
       <c r="B158" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D158" t="s">
         <v>15</v>
@@ -4904,7 +4903,7 @@
     </row>
     <row r="159" spans="1:12" ht="17">
       <c r="B159" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D159" t="s">
         <v>15</v>
@@ -5265,7 +5264,7 @@
         <v>1</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C174" t="s">
         <v>29</v>
@@ -5331,7 +5330,7 @@
         <v>50</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C177" t="s">
         <v>54</v>
@@ -5371,7 +5370,7 @@
         <v>53</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C179" t="s">
         <v>56</v>
@@ -5391,7 +5390,7 @@
         <v>39</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C180" t="s">
         <v>40</v>
@@ -5430,7 +5429,7 @@
     </row>
     <row r="182" spans="1:12" ht="34">
       <c r="B182" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D182" t="s">
         <v>15</v>
@@ -5455,7 +5454,7 @@
         <v>35</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C184" t="s">
         <v>58</v>
@@ -5855,7 +5854,7 @@
     </row>
     <row r="207" spans="1:12" ht="34">
       <c r="B207" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D207" t="s">
         <v>15</v>
@@ -5887,7 +5886,7 @@
         <v>247</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C208" t="s">
         <v>249</v>

--- a/Assets/StreamingAssets/StoryScript5.xlsx
+++ b/Assets/StreamingAssets/StoryScript5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/renqi/TextAdvancedGame/Assets/StreamingAssets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8A19409-4E70-334E-A273-26A52301154C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EA40BB3-57A6-064D-A002-57B8F5085728}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28100" windowHeight="15820" xr2:uid="{68C9ECD6-F2C7-A34A-8665-FFA8663C762C}"/>
   </bookViews>
@@ -1372,7 +1372,8 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>The food in storage......&lt;color=#FFCC000&gt;millet, wheat and rice&lt;/color&gt; should be just enough to last seven days.</t>
+    <t>The food in storage......&lt;color=#FFCC00&gt;millet, wheat and rice&lt;/color&gt; should be just enough to last seven days.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
